--- a/StaffDataInsights.xlsx
+++ b/StaffDataInsights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sultan\Documents\GitHub\Excel-Datasets-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D1BEDC-8604-48ED-A8CB-31A407EE1CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72A6F12-5858-4560-A2F6-02FA17A44B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Concepts" sheetId="2" r:id="rId1"/>
@@ -15749,7 +15749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70636FF-F6B1-4F65-87B4-6E77157F05B1}">
   <dimension ref="B2:N105"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
@@ -19019,10 +19019,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C1416C-219B-4C61-AF15-816AE14BC08D}">
-  <dimension ref="B3:J20"/>
+  <dimension ref="B3:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19031,12 +19031,13 @@
     <col min="2" max="2" width="6.33203125" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" customWidth="1"/>
     <col min="5" max="5" width="17.77734375" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" customWidth="1"/>
-    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="18.109375" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" customWidth="1"/>
+    <col min="9" max="9" width="0.88671875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:12" ht="23.4" x14ac:dyDescent="0.45">
       <c r="E3" s="42" t="s">
         <v>781</v>
       </c>
@@ -19047,8 +19048,11 @@
         <v>24</v>
       </c>
       <c r="H3" s="39"/>
-    </row>
-    <row r="4" spans="2:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B4" s="44" t="s">
         <v>778</v>
       </c>
@@ -19058,11 +19062,20 @@
         <f>MIN(staff[Salary])</f>
         <v>28160.79</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
+      <c r="F4" s="43">
+        <f>_xlfn.MINIFS(staff[Salary],staff[Gender],F3)</f>
+        <v>28160.79</v>
+      </c>
+      <c r="G4" s="43">
+        <f>_xlfn.MINIFS(staff[Salary],staff[Gender],G3)</f>
+        <v>28305.08</v>
+      </c>
       <c r="H4" s="39"/>
-    </row>
-    <row r="5" spans="2:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="L4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B5" s="44" t="s">
         <v>779</v>
       </c>
@@ -19072,11 +19085,20 @@
         <f>MAX(staff[Salary])</f>
         <v>120000</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
+      <c r="F5" s="43">
+        <f>_xlfn.MAXIFS(staff[Salary],staff[Gender],F3)</f>
+        <v>120000</v>
+      </c>
+      <c r="G5" s="43">
+        <f>_xlfn.MAXIFS(staff[Salary],staff[Gender],G3)</f>
+        <v>120000</v>
+      </c>
       <c r="H5" s="39"/>
-    </row>
-    <row r="6" spans="2:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="L5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B6" s="44" t="s">
         <v>780</v>
       </c>
@@ -19086,30 +19108,55 @@
         <f t="array" ref="E6:E10">LARGE(staff[Salary],I6:I10)</f>
         <v>120000</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
+      <c r="F6" s="40" cm="1">
+        <f t="array" ref="F6">LARGE(_xlfn._xlws.FILTER(staff[Salary],staff[Gender]=F3),J7)</f>
+        <v>114691.03</v>
+      </c>
+      <c r="G6" s="40" cm="1">
+        <f t="array" ref="G6:G10">LARGE(_xlfn._xlws.FILTER(staff[Salary],staff[Gender]=G3),L3:L7)</f>
+        <v>120000</v>
+      </c>
       <c r="H6" s="39"/>
       <c r="I6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="L6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="23.4" x14ac:dyDescent="0.45">
       <c r="E7" s="43">
         <v>120000</v>
       </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
+      <c r="F7" s="40" cm="1">
+        <f t="array" ref="F7">LARGE(_xlfn._xlws.FILTER(staff[Salary], staff[Gender]=F3), {2})</f>
+        <v>119022.49</v>
+      </c>
+      <c r="G7" s="40">
+        <v>118442.54</v>
+      </c>
       <c r="H7" s="39"/>
       <c r="I7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="23.4" x14ac:dyDescent="0.45">
       <c r="E8" s="43">
         <v>119022.49</v>
       </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
+      <c r="F8" s="40" cm="1">
+        <f t="array" ref="F8">LARGE(_xlfn._xlws.FILTER(staff[Salary], staff[Gender]=F3), {3})</f>
+        <v>118976.16</v>
+      </c>
+      <c r="G8" s="40">
+        <v>116767.63</v>
+      </c>
       <c r="H8" s="39"/>
       <c r="I8">
         <v>3</v>
@@ -19118,29 +19165,38 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:12" ht="23.4" x14ac:dyDescent="0.45">
       <c r="E9" s="43">
         <v>118976.16</v>
       </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
+      <c r="F9" s="40" cm="1">
+        <f t="array" ref="F9:F10">LARGE(_xlfn._xlws.FILTER(staff[Salary], staff[Gender]=F3), L6:L7)</f>
+        <v>115191.38</v>
+      </c>
+      <c r="G9" s="40">
+        <v>116767.63</v>
+      </c>
       <c r="H9" s="39"/>
       <c r="I9">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:12" ht="23.4" x14ac:dyDescent="0.45">
       <c r="E10" s="43">
         <v>118442.54</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
+      <c r="F10" s="40">
+        <v>114691.03</v>
+      </c>
+      <c r="G10" s="40">
+        <v>114772.32</v>
+      </c>
       <c r="H10" s="39"/>
       <c r="I10">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" ht="18" x14ac:dyDescent="0.35">
       <c r="B14" s="44" t="s">
         <v>783</v>
       </c>
@@ -19153,14 +19209,14 @@
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
     </row>
-    <row r="15" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" ht="18" x14ac:dyDescent="0.35">
       <c r="E15" s="43">
         <v>120000</v>
       </c>
       <c r="F15" s="40"/>
       <c r="G15" s="40"/>
     </row>
-    <row r="16" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" ht="18" x14ac:dyDescent="0.35">
       <c r="E16" s="43">
         <v>119022.49</v>
       </c>

--- a/StaffDataInsights.xlsx
+++ b/StaffDataInsights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sultan\Documents\GitHub\Excel-Datasets-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72A6F12-5858-4560-A2F6-02FA17A44B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D34B5C-53C2-4275-BCB6-4035B5CD6F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Concepts" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet5" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$B$2:$B$16</definedName>
@@ -63,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2415" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2430" uniqueCount="793">
   <si>
     <t>Emp ID</t>
   </si>
@@ -2415,14 +2417,42 @@
   </si>
   <si>
     <t>Salary Sorting</t>
+  </si>
+  <si>
+    <t>List All departments and count them</t>
+  </si>
+  <si>
+    <t>Count:</t>
+  </si>
+  <si>
+    <t>Challenge:</t>
+  </si>
+  <si>
+    <t>All departments in row comma seprated</t>
+  </si>
+  <si>
+    <t>Employeelookup</t>
+  </si>
+  <si>
+    <t>EmployeeID:</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>SQ02175</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
@@ -2507,7 +2537,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2552,6 +2582,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2629,12 +2671,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2725,11 +2768,23 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="9" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Comma" xfId="3" builtinId="3"/>
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4678,8 +4733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE182796-6443-4558-9B87-909B73329DFC}">
   <dimension ref="A1:O267"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView showGridLines="0" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8:G267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15421,7 +15476,7 @@
   <dimension ref="B2:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15749,8 +15804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70636FF-F6B1-4F65-87B4-6E77157F05B1}">
   <dimension ref="B2:N105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+    <sheetView topLeftCell="A64" zoomScale="101" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15762,7 +15817,7 @@
     <col min="5" max="5" width="8.88671875" customWidth="1"/>
     <col min="6" max="6" width="13.5546875" customWidth="1"/>
     <col min="8" max="8" width="13.5546875" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1"/>
     <col min="11" max="11" width="12.21875" customWidth="1"/>
     <col min="12" max="12" width="23.5546875" customWidth="1"/>
     <col min="14" max="14" width="15.77734375" customWidth="1"/>
@@ -15796,7 +15851,7 @@
       <c r="H3" s="33" t="str">
         <v>Salary Bucket</v>
       </c>
-      <c r="I3" s="33" t="str">
+      <c r="I3" s="44" t="str">
         <v>Start Date</v>
       </c>
       <c r="J3" s="33" t="str">
@@ -19021,8 +19076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C1416C-219B-4C61-AF15-816AE14BC08D}">
   <dimension ref="B3:L20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19053,11 +19108,11 @@
       </c>
     </row>
     <row r="4" spans="2:12" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="45" t="s">
         <v>778</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="43">
         <f>MIN(staff[Salary])</f>
         <v>28160.79</v>
@@ -19076,11 +19131,11 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="45" t="s">
         <v>779</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
       <c r="E5" s="43">
         <f>MAX(staff[Salary])</f>
         <v>120000</v>
@@ -19099,11 +19154,11 @@
       </c>
     </row>
     <row r="6" spans="2:12" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="45" t="s">
         <v>780</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="43" cm="1">
         <f t="array" ref="E6:E10">LARGE(staff[Salary],I6:I10)</f>
         <v>120000</v>
@@ -19197,11 +19252,11 @@
       </c>
     </row>
     <row r="14" spans="2:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="45" t="s">
         <v>783</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
       <c r="E14" s="43" cm="1">
         <f t="array" ref="E14:E20">LARGE(staff[Salary], _xlfn.SEQUENCE(J8))</f>
         <v>120000</v>
@@ -19260,4 +19315,235 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A95CC7B-A698-45E1-AF5B-2327603E129D}">
+  <dimension ref="B3:O22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="B3" s="47" t="s">
+        <v>784</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" t="s">
+        <v>785</v>
+      </c>
+      <c r="H3">
+        <f>COUNTA(_xlfn.ANCHORARRAY(B5))</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B5" t="str" cm="1">
+        <f t="array" ref="B5:B16">_xlfn._xlws.SORT((_xlfn.UNIQUE(staff[Department])))</f>
+        <v>Accounting</v>
+      </c>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B6" t="str">
+        <v>Business Development</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7" t="str">
+        <v>Engineering</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" t="str">
+        <v>Human Resources</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" t="str">
+        <v>Legal</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" t="str">
+        <v>Marketing</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11" t="str">
+        <v>Product Management</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" t="str">
+        <v>Research and Development</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13" t="str">
+        <v>Sales</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" t="str">
+        <v>Services</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B15" t="str">
+        <v>Support</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16" t="str">
+        <v>Training</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="50" t="s">
+        <v>786</v>
+      </c>
+      <c r="C19" s="50"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="50" t="s">
+        <v>787</v>
+      </c>
+      <c r="C20" s="50"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,B5:B16)</f>
+        <v>Accounting,Business Development,Engineering,Human Resources,Legal,Marketing,Product Management,Research and Development,Sales,Services,Support,Training</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B826DB7-AA87-4535-804C-6B76CD582ABC}">
+  <dimension ref="B4:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B4" s="46" t="s">
+        <v>788</v>
+      </c>
+      <c r="C4" s="51"/>
+    </row>
+    <row r="7" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>789</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>557</v>
+      </c>
+      <c r="D7" s="53"/>
+    </row>
+    <row r="8" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+    </row>
+    <row r="9" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>790</v>
+      </c>
+      <c r="C9" s="54" t="str">
+        <f>VLOOKUP(C7,staff[],2,FALSE)</f>
+        <v>Sidoney</v>
+      </c>
+      <c r="D9" s="53"/>
+    </row>
+    <row r="10" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>791</v>
+      </c>
+      <c r="C10" s="54" t="str">
+        <f>VLOOKUP(C7,staff[],3,FALSE)</f>
+        <v>Yitzhok</v>
+      </c>
+      <c r="D10" s="53"/>
+    </row>
+    <row r="11" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="54" t="str">
+        <f>VLOOKUP(C7,staff[],5,FALSE)</f>
+        <v>Engineering</v>
+      </c>
+      <c r="D11" s="53"/>
+    </row>
+    <row r="12" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="55">
+        <f>VLOOKUP(C7,staff[],6,FALSE)</f>
+        <v>118442.54</v>
+      </c>
+      <c r="D12" s="53"/>
+    </row>
+    <row r="15" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>789</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>790</v>
+      </c>
+      <c r="C17" s="54" t="e">
+        <f>VLOOKUP(C15,staff[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>790</v>
+      </c>
+      <c r="C18" s="54" t="str">
+        <f>IFERROR(VLOOKUP(C15,staff[],3,FALSE),"NotFound")</f>
+        <v>NotFound</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/StaffDataInsights.xlsx
+++ b/StaffDataInsights.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sultan\Documents\GitHub\Excel-Datasets-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D34B5C-53C2-4275-BCB6-4035B5CD6F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CD1125-2A56-4044-B5FB-65B2AAC90789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2430" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="807">
   <si>
     <t>Emp ID</t>
   </si>
@@ -2444,6 +2444,241 @@
   </si>
   <si>
     <t>SQ02175</t>
+  </si>
+  <si>
+    <t>EmpId</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You have an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Employee ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Find the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Employee Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from the table.</t>
+    </r>
+  </si>
+  <si>
+    <t>Given the Last name, return its emptype from the product table.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You are given a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Salary value </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Find the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Employee Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> whose salary it is.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Find the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Start Date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of the employee whose </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Last Name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Find the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Employee Type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for the employee in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8th position</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of the table.</t>
+    </r>
+  </si>
+  <si>
+    <t>Find the salary of the employee who meets BOTH conditions:</t>
+  </si>
+  <si>
+    <t>Gender = Female</t>
+  </si>
+  <si>
+    <t>Department = Engineering</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Find the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Work Location</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of the employee who meets BOTH these conditions:</t>
+    </r>
+  </si>
+  <si>
+    <t>Gender = Male</t>
+  </si>
+  <si>
+    <t>Employee Type = Permanent</t>
   </si>
 </sst>
 </file>
@@ -2598,7 +2833,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -2670,6 +2905,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2677,7 +2983,7 @@
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2769,9 +3075,6 @@
     <xf numFmtId="166" fontId="8" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -2782,6 +3085,27 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="10" fillId="9" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -4733,8 +5057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE182796-6443-4558-9B87-909B73329DFC}">
   <dimension ref="A1:O267"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:G267"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19108,11 +19432,11 @@
       </c>
     </row>
     <row r="4" spans="2:12" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="55" t="s">
         <v>778</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="43">
         <f>MIN(staff[Salary])</f>
         <v>28160.79</v>
@@ -19131,11 +19455,11 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="55" t="s">
         <v>779</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
       <c r="E5" s="43">
         <f>MAX(staff[Salary])</f>
         <v>120000</v>
@@ -19154,11 +19478,11 @@
       </c>
     </row>
     <row r="6" spans="2:12" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="55" t="s">
         <v>780</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
       <c r="E6" s="43" cm="1">
         <f t="array" ref="E6:E10">LARGE(staff[Salary],I6:I10)</f>
         <v>120000</v>
@@ -19252,11 +19576,11 @@
       </c>
     </row>
     <row r="14" spans="2:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="55" t="s">
         <v>783</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
       <c r="E14" s="43" cm="1">
         <f t="array" ref="E14:E20">LARGE(staff[Salary], _xlfn.SEQUENCE(J8))</f>
         <v>120000</v>
@@ -19332,13 +19656,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="46" t="s">
         <v>784</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
       <c r="G3" t="s">
         <v>785</v>
       </c>
@@ -19352,18 +19676,18 @@
         <f t="array" ref="B5:B16">_xlfn._xlws.SORT((_xlfn.UNIQUE(staff[Department])))</f>
         <v>Accounting</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" t="str">
@@ -19421,16 +19745,16 @@
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="49" t="s">
         <v>786</v>
       </c>
-      <c r="C19" s="50"/>
+      <c r="C19" s="49"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="49" t="s">
         <v>787</v>
       </c>
-      <c r="C20" s="50"/>
+      <c r="C20" s="49"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" t="str">
@@ -19445,10 +19769,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B826DB7-AA87-4535-804C-6B76CD582ABC}">
-  <dimension ref="B4:D18"/>
+  <dimension ref="A4:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19459,69 +19783,69 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="45" t="s">
         <v>788</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="50"/>
     </row>
     <row r="7" spans="2:4" ht="18" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>789</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="51" t="s">
         <v>557</v>
       </c>
-      <c r="D7" s="53"/>
+      <c r="D7" s="52"/>
     </row>
     <row r="8" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
     </row>
     <row r="9" spans="2:4" ht="18" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>790</v>
       </c>
-      <c r="C9" s="54" t="str">
+      <c r="C9" s="53" t="str">
         <f>VLOOKUP(C7,staff[],2,FALSE)</f>
         <v>Sidoney</v>
       </c>
-      <c r="D9" s="53"/>
+      <c r="D9" s="52"/>
     </row>
     <row r="10" spans="2:4" ht="18" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>791</v>
       </c>
-      <c r="C10" s="54" t="str">
+      <c r="C10" s="53" t="str">
         <f>VLOOKUP(C7,staff[],3,FALSE)</f>
         <v>Yitzhok</v>
       </c>
-      <c r="D10" s="53"/>
+      <c r="D10" s="52"/>
     </row>
     <row r="11" spans="2:4" ht="18" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="54" t="str">
+      <c r="C11" s="53" t="str">
         <f>VLOOKUP(C7,staff[],5,FALSE)</f>
         <v>Engineering</v>
       </c>
-      <c r="D11" s="53"/>
+      <c r="D11" s="52"/>
     </row>
     <row r="12" spans="2:4" ht="18" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="55">
+      <c r="C12" s="54">
         <f>VLOOKUP(C7,staff[],6,FALSE)</f>
         <v>118442.54</v>
       </c>
-      <c r="D12" s="53"/>
+      <c r="D12" s="52"/>
     </row>
     <row r="15" spans="2:4" ht="18" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>789</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="51" t="s">
         <v>792</v>
       </c>
     </row>
@@ -19529,7 +19853,7 @@
       <c r="B17" t="s">
         <v>790</v>
       </c>
-      <c r="C17" s="54" t="e">
+      <c r="C17" s="53" t="e">
         <f>VLOOKUP(C15,staff[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -19538,10 +19862,463 @@
       <c r="B18" t="s">
         <v>790</v>
       </c>
-      <c r="C18" s="54" t="str">
-        <f>IFERROR(VLOOKUP(C15,staff[],3,FALSE),"NotFound")</f>
-        <v>NotFound</v>
-      </c>
+      <c r="C18" s="53" t="str">
+        <f>IFERROR(VLOOKUP(C15,staff[],3,FALSE),"Not Found")</f>
+        <v>Not Found</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="56" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="C24" s="52">
+        <f>MATCH(C23,staff[Last Name],0)</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>793</v>
+      </c>
+      <c r="C25" s="53" t="str">
+        <f>INDEX(staff[Emp ID],43)</f>
+        <v>PR03532</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="53" t="str">
+        <f>INDEX(staff[Department],MATCH(C23,staff[Last Name],))</f>
+        <v>Human Resources</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="54">
+        <f>INDEX(staff[Salary],MATCH(C23,staff[Last Name],0))</f>
+        <v>72876.91</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <f>INDEX(staff[Salary],MATCH(C30,staff[First Name],0))</f>
+        <v>114177.23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="38"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="38"/>
+      <c r="B34" s="57" t="s">
+        <v>794</v>
+      </c>
+      <c r="C34" s="59"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="38"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="38"/>
+      <c r="B35" s="60" t="s">
+        <v>795</v>
+      </c>
+      <c r="C35" s="62"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="38"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="38"/>
+      <c r="B36" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="65" t="str">
+        <f>VLOOKUP(B36,staff[],2,FALSE)</f>
+        <v>Althea</v>
+      </c>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="38"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="38"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="38"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="38"/>
+      <c r="B38" s="57" t="s">
+        <v>796</v>
+      </c>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="38"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="38"/>
+      <c r="B39" s="60" t="s">
+        <v>436</v>
+      </c>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="38"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="38"/>
+      <c r="B40" s="63" t="str">
+        <f>INDEX(staff[Employee type],MATCH(B39,staff[Last Name],0))</f>
+        <v>Permanent</v>
+      </c>
+      <c r="C40" s="64"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="38"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="38"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="38"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="38"/>
+      <c r="B43" s="57" t="s">
+        <v>797</v>
+      </c>
+      <c r="C43" s="59"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="38"/>
+      <c r="B44" s="60" t="s">
+        <v>798</v>
+      </c>
+      <c r="C44" s="62"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="38"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="38"/>
+      <c r="B46" s="60">
+        <v>120000</v>
+      </c>
+      <c r="C46" s="62"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="38"/>
+      <c r="B47" s="63" t="str">
+        <f>INDEX(staff[First Name],MATCH(B46,staff[Salary],0))</f>
+        <v>Minerva</v>
+      </c>
+      <c r="C47" s="65"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="38"/>
+      <c r="B49" s="57" t="s">
+        <v>799</v>
+      </c>
+      <c r="C49" s="58"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="38"/>
+      <c r="B50" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="61"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="38"/>
+      <c r="B51" s="66">
+        <f>INDEX(staff[Start Date],MATCH(B50,staff[Last Name],0))</f>
+        <v>44120</v>
+      </c>
+      <c r="C51" s="64"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="38"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="38"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="38"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="38"/>
+      <c r="B55" s="57" t="s">
+        <v>800</v>
+      </c>
+      <c r="C55" s="58"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="58"/>
+      <c r="F55" s="59"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="38"/>
+      <c r="B56" s="60">
+        <v>8</v>
+      </c>
+      <c r="C56" s="61"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="62"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="38"/>
+      <c r="B57" s="63" t="str">
+        <f>INDEX(staff[Employee type], 8)</f>
+        <v>Permanent</v>
+      </c>
+      <c r="C57" s="64"/>
+      <c r="D57" s="64"/>
+      <c r="E57" s="64"/>
+      <c r="F57" s="65"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="38"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="38"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="38"/>
+      <c r="B59" s="57" t="s">
+        <v>801</v>
+      </c>
+      <c r="C59" s="58"/>
+      <c r="D59" s="58"/>
+      <c r="E59" s="59"/>
+      <c r="F59" s="38"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="38"/>
+      <c r="B60" s="67"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="61"/>
+      <c r="E60" s="62"/>
+      <c r="F60" s="38"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="38"/>
+      <c r="B61" s="67" t="s">
+        <v>802</v>
+      </c>
+      <c r="C61" s="61"/>
+      <c r="D61" s="61"/>
+      <c r="E61" s="62"/>
+      <c r="F61" s="38"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="38"/>
+      <c r="B62" s="67"/>
+      <c r="C62" s="61"/>
+      <c r="D62" s="61"/>
+      <c r="E62" s="62"/>
+      <c r="F62" s="38"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="38"/>
+      <c r="B63" s="67" t="s">
+        <v>803</v>
+      </c>
+      <c r="C63" s="61"/>
+      <c r="D63" s="61"/>
+      <c r="E63" s="62"/>
+      <c r="F63" s="38"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="38"/>
+      <c r="B64" s="60"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="61"/>
+      <c r="E64" s="62"/>
+      <c r="F64" s="38"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="38"/>
+      <c r="B65" s="68" cm="1">
+        <f t="array" ref="B65">INDEX(staff[Salary], MATCH(1, (staff[Gender]="Male")*(staff[Department]="Engineering"), 0))</f>
+        <v>120000</v>
+      </c>
+      <c r="C65" s="64"/>
+      <c r="D65" s="64"/>
+      <c r="E65" s="65"/>
+      <c r="F65" s="38"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="38"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="38"/>
+      <c r="F66" s="38"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="38"/>
+      <c r="B67" s="57" t="s">
+        <v>804</v>
+      </c>
+      <c r="C67" s="58"/>
+      <c r="D67" s="58"/>
+      <c r="E67" s="58"/>
+      <c r="F67" s="59"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="38"/>
+      <c r="B68" s="67"/>
+      <c r="C68" s="61"/>
+      <c r="D68" s="61"/>
+      <c r="E68" s="61"/>
+      <c r="F68" s="62"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="38"/>
+      <c r="B69" s="69" t="s">
+        <v>805</v>
+      </c>
+      <c r="C69" s="61"/>
+      <c r="D69" s="61"/>
+      <c r="E69" s="61"/>
+      <c r="F69" s="62"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="38"/>
+      <c r="B70" s="67"/>
+      <c r="C70" s="61"/>
+      <c r="D70" s="61"/>
+      <c r="E70" s="61"/>
+      <c r="F70" s="62"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="38"/>
+      <c r="B71" s="69" t="s">
+        <v>806</v>
+      </c>
+      <c r="C71" s="61"/>
+      <c r="D71" s="61"/>
+      <c r="E71" s="61"/>
+      <c r="F71" s="62"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="38"/>
+      <c r="B72" s="60"/>
+      <c r="C72" s="61"/>
+      <c r="D72" s="61"/>
+      <c r="E72" s="61"/>
+      <c r="F72" s="62"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="38"/>
+      <c r="B73" s="60"/>
+      <c r="C73" s="61"/>
+      <c r="D73" s="61"/>
+      <c r="E73" s="61"/>
+      <c r="F73" s="62"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="38"/>
+      <c r="B74" s="63" t="str" cm="1">
+        <f t="array" ref="B74">INDEX(staff[Work location],MATCH(1,(staff[Gender]="Male")*(staff[Employee type]="Permanent"),0))</f>
+        <v>Remote</v>
+      </c>
+      <c r="C74" s="64"/>
+      <c r="D74" s="64"/>
+      <c r="E74" s="64"/>
+      <c r="F74" s="65"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="38"/>
+      <c r="B75" s="38"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="38"/>
+      <c r="F75" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/StaffDataInsights.xlsx
+++ b/StaffDataInsights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sultan\Documents\GitHub\Excel-Datasets-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE6EDBE-592D-4DA1-B72A-9A2132ECEE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34E4E4C-B334-4EAB-AA6E-B7421C0577C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Concepts" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet4" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet5" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet6" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$B$2:$B$16</definedName>
@@ -43,9 +44,10 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
@@ -56,16 +58,30 @@
       </extLst>
     </bk>
   </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2453" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2471" uniqueCount="820">
   <si>
     <t>Emp ID</t>
   </si>
@@ -2683,6 +2699,42 @@
   <si>
     <t>Given the Last name, return its emptype from the table.</t>
   </si>
+  <si>
+    <t>XLOOKUP</t>
+  </si>
+  <si>
+    <t>Entire data</t>
+  </si>
+  <si>
+    <t>in column</t>
+  </si>
+  <si>
+    <t>All emp with 120000 salary</t>
+  </si>
+  <si>
+    <t>Highest salary person</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One person: </t>
+  </si>
+  <si>
+    <t>TextJoin</t>
+  </si>
+  <si>
+    <t>All emp joined in march</t>
+  </si>
+  <si>
+    <t>All emp with starting letter"H"</t>
+  </si>
+  <si>
+    <t>All emp joined on January 1 2020</t>
+  </si>
+  <si>
+    <t>Female emp with Monday start</t>
+  </si>
 </sst>
 </file>
 
@@ -2695,7 +2747,7 @@
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2776,6 +2828,20 @@
     </font>
     <font>
       <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2983,7 +3049,7 @@
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -3099,13 +3165,18 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -3247,6 +3318,64 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>13</v>
+    <v>3</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_error">
+    <k n="errorType" t="i"/>
+    <k n="subType" t="i"/>
+  </s>
+</rvStructures>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5058,7 +5187,7 @@
   <dimension ref="A1:O267"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16128,8 +16257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70636FF-F6B1-4F65-87B4-6E77157F05B1}">
   <dimension ref="B2:N105"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="101" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="A85" zoomScale="101" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E111" sqref="E110:E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19259,30 +19388,9 @@
       <c r="L100" s="38"/>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B101" t="str" cm="1">
-        <f t="array" ref="B101:I101">INDEX(staff[#Headers],1,_xlfn.SEQUENCE(1,8))</f>
-        <v>Emp ID</v>
-      </c>
-      <c r="C101" t="str">
-        <v>First Name</v>
-      </c>
-      <c r="D101" t="str">
-        <v>Last Name</v>
-      </c>
-      <c r="E101" t="str">
-        <v>Gender</v>
-      </c>
-      <c r="F101" t="str">
-        <v>Department</v>
-      </c>
-      <c r="G101" t="str">
-        <v>Salary</v>
-      </c>
-      <c r="H101" t="str">
-        <v>Salary Bucket</v>
-      </c>
-      <c r="I101" t="str">
-        <v>Start Date</v>
+      <c r="B101" t="str">
+        <f>Sheet6!B142</f>
+        <v>All emp joined in march</v>
       </c>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.3">
@@ -19400,7 +19508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C1416C-219B-4C61-AF15-816AE14BC08D}">
   <dimension ref="B3:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -19432,11 +19540,11 @@
       </c>
     </row>
     <row r="4" spans="2:12" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="69" t="s">
         <v>778</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
       <c r="E4" s="43">
         <f>MIN(staff[Salary])</f>
         <v>28160.79</v>
@@ -19455,11 +19563,11 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="69" t="s">
         <v>779</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
       <c r="E5" s="43">
         <f>MAX(staff[Salary])</f>
         <v>120000</v>
@@ -19478,11 +19586,11 @@
       </c>
     </row>
     <row r="6" spans="2:12" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="69" t="s">
         <v>780</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
       <c r="E6" s="43" cm="1">
         <f t="array" ref="E6:E10">LARGE(staff[Salary],I6:I10)</f>
         <v>120000</v>
@@ -19576,11 +19684,11 @@
       </c>
     </row>
     <row r="14" spans="2:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="69" t="s">
         <v>783</v>
       </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
       <c r="E14" s="43" cm="1">
         <f t="array" ref="E14:E20">LARGE(staff[Salary], _xlfn.SEQUENCE(J8))</f>
         <v>120000</v>
@@ -19645,8 +19753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A95CC7B-A698-45E1-AF5B-2327603E129D}">
   <dimension ref="B3:O22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19769,26 +19877,34 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B826DB7-AA87-4535-804C-6B76CD582ABC}">
-  <dimension ref="A4:F76"/>
+  <dimension ref="A4:R80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
     <col min="9" max="9" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:18" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="45" t="s">
         <v>788</v>
       </c>
       <c r="C4" s="50"/>
     </row>
-    <row r="7" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:18" ht="21" x14ac:dyDescent="0.4">
+      <c r="F5" s="70" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" ht="18" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>789</v>
       </c>
@@ -19796,12 +19912,19 @@
         <v>557</v>
       </c>
       <c r="D7" s="52"/>
-    </row>
-    <row r="8" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="F7" t="s">
+        <v>789</v>
+      </c>
+      <c r="G7" s="51" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" ht="18" x14ac:dyDescent="0.35">
       <c r="C8" s="52"/>
       <c r="D8" s="52"/>
-    </row>
-    <row r="9" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="G8" s="52"/>
+    </row>
+    <row r="9" spans="2:18" ht="18" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>790</v>
       </c>
@@ -19810,8 +19933,15 @@
         <v>Sidoney</v>
       </c>
       <c r="D9" s="52"/>
-    </row>
-    <row r="10" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="F9" t="s">
+        <v>790</v>
+      </c>
+      <c r="G9" s="53" t="str">
+        <f>_xlfn.XLOOKUP(G7,staff[Emp ID],staff[First Name],"Not Found")</f>
+        <v>Sidoney</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" ht="18" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>791</v>
       </c>
@@ -19820,8 +19950,15 @@
         <v>Yitzhok</v>
       </c>
       <c r="D10" s="52"/>
-    </row>
-    <row r="11" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="F10" t="s">
+        <v>791</v>
+      </c>
+      <c r="G10" s="53" t="str">
+        <f>_xlfn.XLOOKUP(G7,staff[Emp ID],staff[Last Name])</f>
+        <v>Yitzhok</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="18" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -19830,8 +19967,15 @@
         <v>Engineering</v>
       </c>
       <c r="D11" s="52"/>
-    </row>
-    <row r="12" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="53" t="str">
+        <f>_xlfn.XLOOKUP(G7,staff[Emp ID],staff[Department])</f>
+        <v>Engineering</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" ht="18" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>5</v>
       </c>
@@ -19840,16 +19984,68 @@
         <v>118442.54</v>
       </c>
       <c r="D12" s="52"/>
-    </row>
-    <row r="15" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="54">
+        <f>VLOOKUP(G7,staff[],6,FALSE)</f>
+        <v>118442.54</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="F14" s="52" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" ht="18" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>789</v>
       </c>
       <c r="C15" s="51" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="F15" t="str" cm="1">
+        <f t="array" ref="F15:R15">_xlfn.XLOOKUP(C23,staff[Last Name],staff[])</f>
+        <v>PR03532</v>
+      </c>
+      <c r="G15" t="str">
+        <v>Crawford</v>
+      </c>
+      <c r="H15" t="str">
+        <v>Scad</v>
+      </c>
+      <c r="I15" t="str">
+        <v>Male</v>
+      </c>
+      <c r="J15" t="str">
+        <v>Human Resources</v>
+      </c>
+      <c r="K15">
+        <v>72876.91</v>
+      </c>
+      <c r="L15" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="M15">
+        <v>43837</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="P15" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="Q15">
+        <v>4.4575342465753423</v>
+      </c>
+      <c r="R15" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="18" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>790</v>
       </c>
@@ -19857,8 +20053,11 @@
         <f>VLOOKUP(C15,staff[],2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="F17" s="52" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="18" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>790</v>
       </c>
@@ -19866,22 +20065,52 @@
         <f>IFERROR(VLOOKUP(C15,staff[],3,FALSE),"Not Found")</f>
         <v>Not Found</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="F18" t="str" cm="1">
+        <f t="array" ref="F18:F30">TRANSPOSE(_xlfn.XLOOKUP(C23,staff[Last Name],staff[]))</f>
+        <v>PR03532</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F19" t="str">
+        <v>Crawford</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F20" t="str">
+        <v>Scad</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F21" t="str">
+        <v>Male</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F22" t="str">
+        <v>Human Resources</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="18" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>2</v>
       </c>
       <c r="C23" s="55" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="F23">
+        <v>72876.91</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="18" x14ac:dyDescent="0.35">
       <c r="C24" s="52">
         <f>MATCH(C23,staff[Last Name],0)</f>
         <v>43</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="F24" t="str">
+        <v>50k to 100k</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="18" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>793</v>
       </c>
@@ -19889,8 +20118,11 @@
         <f>INDEX(staff[Emp ID],43)</f>
         <v>PR03532</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="F25">
+        <v>43837</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="18" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>4</v>
       </c>
@@ -19898,8 +20130,11 @@
         <f>INDEX(staff[Department],MATCH(C23,staff[Last Name],))</f>
         <v>Human Resources</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="18" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>5</v>
       </c>
@@ -19907,20 +20142,36 @@
         <f>INDEX(staff[Salary],MATCH(C23,staff[Last Name],0))</f>
         <v>72876.91</v>
       </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="F27" t="str">
+        <v>Permanent</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F28" t="str">
+        <v>Remote</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F29">
+        <v>4.4575342465753423</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="F30" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C31">
         <f>INDEX(staff[Salary],MATCH(C30,staff[First Name],0))</f>
         <v>114177.23</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="21" x14ac:dyDescent="0.4">
-      <c r="B33" s="66" t="s">
+      <c r="B33" s="65" t="s">
         <v>806</v>
       </c>
     </row>
@@ -19954,10 +20205,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="38"/>
-      <c r="B37" s="67" t="s">
+      <c r="B37" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="C37" s="67" t="str">
+      <c r="C37" s="66" t="str">
         <f>VLOOKUP(B37,staff[],2,FALSE)</f>
         <v>Althea</v>
       </c>
@@ -19985,7 +20236,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="38"/>
-      <c r="B40" s="67" t="s">
+      <c r="B40" s="66" t="s">
         <v>436</v>
       </c>
       <c r="C40" s="38"/>
@@ -19995,7 +20246,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="38"/>
-      <c r="B41" s="67" t="str">
+      <c r="B41" s="66" t="str">
         <f>INDEX(staff[Employee type],MATCH(B40,staff[Last Name],0))</f>
         <v>Permanent</v>
       </c>
@@ -20050,7 +20301,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="38"/>
-      <c r="B47" s="67">
+      <c r="B47" s="66">
         <v>120000</v>
       </c>
       <c r="C47" s="60"/>
@@ -20060,7 +20311,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="38"/>
-      <c r="B48" s="67" t="str">
+      <c r="B48" s="66" t="str">
         <f>INDEX(staff[First Name],MATCH(B47,staff[Salary],0))</f>
         <v>Minerva</v>
       </c>
@@ -20089,7 +20340,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="38"/>
-      <c r="B51" s="67" t="s">
+      <c r="B51" s="66" t="s">
         <v>44</v>
       </c>
       <c r="C51" s="38"/>
@@ -20099,7 +20350,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="38"/>
-      <c r="B52" s="69">
+      <c r="B52" s="68">
         <f>INDEX(staff[Start Date],MATCH(B51,staff[Last Name],0))</f>
         <v>44120</v>
       </c>
@@ -20144,7 +20395,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="38"/>
-      <c r="B57" s="67">
+      <c r="B57" s="66">
         <v>8</v>
       </c>
       <c r="C57" s="38"/>
@@ -20154,7 +20405,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="38"/>
-      <c r="B58" s="67" t="str">
+      <c r="B58" s="66" t="str">
         <f>INDEX(staff[Employee type], 8)</f>
         <v>Permanent</v>
       </c>
@@ -20217,7 +20468,7 @@
       <c r="E64" s="60"/>
       <c r="F64" s="38"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="38"/>
       <c r="B65" s="59"/>
       <c r="C65" s="38"/>
@@ -20225,9 +20476,9 @@
       <c r="E65" s="60"/>
       <c r="F65" s="38"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="38"/>
-      <c r="B66" s="68" cm="1">
+      <c r="B66" s="67" cm="1">
         <f t="array" ref="B66">INDEX(staff[Salary], MATCH(1, (staff[Gender]="Male")*(staff[Department]="Engineering"), 0))</f>
         <v>120000</v>
       </c>
@@ -20236,7 +20487,7 @@
       <c r="E66" s="62"/>
       <c r="F66" s="38"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="38"/>
       <c r="B67" s="38"/>
       <c r="C67" s="38"/>
@@ -20244,7 +20495,7 @@
       <c r="E67" s="38"/>
       <c r="F67" s="38"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="38"/>
       <c r="B68" s="56" t="s">
         <v>803</v>
@@ -20254,7 +20505,7 @@
       <c r="E68" s="57"/>
       <c r="F68" s="58"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="38"/>
       <c r="B69" s="63"/>
       <c r="C69" s="38"/>
@@ -20262,7 +20513,7 @@
       <c r="E69" s="38"/>
       <c r="F69" s="60"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="38"/>
       <c r="B70" s="64" t="s">
         <v>804</v>
@@ -20272,7 +20523,7 @@
       <c r="E70" s="38"/>
       <c r="F70" s="60"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="38"/>
       <c r="B71" s="63"/>
       <c r="C71" s="38"/>
@@ -20280,7 +20531,7 @@
       <c r="E71" s="38"/>
       <c r="F71" s="60"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="38"/>
       <c r="B72" s="64" t="s">
         <v>805</v>
@@ -20290,7 +20541,7 @@
       <c r="E72" s="38"/>
       <c r="F72" s="60"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="38"/>
       <c r="B73" s="59"/>
       <c r="C73" s="38"/>
@@ -20298,7 +20549,7 @@
       <c r="E73" s="38"/>
       <c r="F73" s="60"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="38"/>
       <c r="B74" s="59"/>
       <c r="C74" s="38"/>
@@ -20306,9 +20557,9 @@
       <c r="E74" s="38"/>
       <c r="F74" s="60"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="38"/>
-      <c r="B75" s="67" t="str" cm="1">
+      <c r="B75" s="66" t="str" cm="1">
         <f t="array" ref="B75">INDEX(staff[Work location],MATCH(1,(staff[Gender]="Male")*(staff[Employee type]="Permanent"),0))</f>
         <v>Remote</v>
       </c>
@@ -20317,7 +20568,7 @@
       <c r="E75" s="61"/>
       <c r="F75" s="62"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="38"/>
       <c r="B76" s="38"/>
       <c r="C76" s="38"/>
@@ -20325,7 +20576,6136 @@
       <c r="E76" s="38"/>
       <c r="F76" s="38"/>
     </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A77" s="38"/>
+      <c r="B77" s="38"/>
+      <c r="C77" s="38"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="38"/>
+      <c r="F77" s="38"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B79" t="str" cm="1">
+        <f t="array" ref="B79:N80">_xlfn._xlws.FILTER(staff[],staff[Salary]=120000,"Not found")</f>
+        <v>PR00147</v>
+      </c>
+      <c r="C79" t="str">
+        <v>Minerva</v>
+      </c>
+      <c r="D79" t="str">
+        <v>Ricardot</v>
+      </c>
+      <c r="E79" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F79" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="G79">
+        <v>120000</v>
+      </c>
+      <c r="H79" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I79">
+        <v>43416</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L79" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M79">
+        <v>5.6109589041095891</v>
+      </c>
+      <c r="N79" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B80" t="str">
+        <v>SQ04612</v>
+      </c>
+      <c r="C80" t="str">
+        <v>Mick</v>
+      </c>
+      <c r="D80" t="str">
+        <v>Spraberry</v>
+      </c>
+      <c r="E80" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F80" t="str">
+        <v>Services</v>
+      </c>
+      <c r="G80">
+        <v>120000</v>
+      </c>
+      <c r="H80" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I80">
+        <v>43902</v>
+      </c>
+      <c r="J80">
+        <v>0.9</v>
+      </c>
+      <c r="K80" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L80" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M80">
+        <v>4.279452054794521</v>
+      </c>
+      <c r="N80" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A44162-034B-4E1D-B18B-797423530B7C}">
+  <dimension ref="B3:N402"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="B168" sqref="B168"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="72" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="71" t="s">
+        <v>814</v>
+      </c>
+      <c r="C5" s="71" t="str" cm="1">
+        <f t="array" ref="C5">_xlfn.XLOOKUP(MAX(staff[Salary]),staff[Salary],staff[First Name]&amp;" "&amp;staff[Last Name])</f>
+        <v>Minerva Ricardot</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="72" t="s">
+        <v>813</v>
+      </c>
+      <c r="C9" s="71" t="str" cm="1">
+        <f t="array" ref="C9:C10">_xlfn._xlws.FILTER(staff[First Name]&amp;" "&amp;staff[Last Name],staff[Salary]=120000)</f>
+        <v>Minerva Ricardot</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C10" s="71" t="str">
+        <v>Mick Spraberry</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="72" t="s">
+        <v>815</v>
+      </c>
+      <c r="C12" s="71" t="str" cm="1">
+        <f t="array" ref="C12">_xlfn.TEXTJOIN(" , ",,_xlfn._xlws.FILTER(staff[First Name]&amp;" "&amp;staff[Last Name],staff[Salary]=120000))</f>
+        <v>Minerva Ricardot , Mick Spraberry</v>
+      </c>
+      <c r="D12" s="71"/>
+    </row>
+    <row r="15" spans="2:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="B15" s="73" t="s">
+        <v>818</v>
+      </c>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B16" t="str" cm="1">
+        <f t="array" ref="B16:N129">_xlfn._xlws.FILTER(staff[],staff[Start Date]&gt;=DATE(2020,1,1))</f>
+        <v>PR00007</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Torrance</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Collier</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F16" t="str">
+        <v>Training</v>
+      </c>
+      <c r="G16">
+        <v>96135.75</v>
+      </c>
+      <c r="H16" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I16" s="6">
+        <v>44025</v>
+      </c>
+      <c r="J16">
+        <v>0.3</v>
+      </c>
+      <c r="K16" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L16" t="str">
+        <v>Wellington, New Zealand</v>
+      </c>
+      <c r="M16">
+        <v>3.9424657534246577</v>
+      </c>
+      <c r="N16" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" t="str">
+        <v>PR00095</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Devrat</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Damarsingh</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F17" t="str">
+        <v>Business Development</v>
+      </c>
+      <c r="G17">
+        <v>70649.460000000006</v>
+      </c>
+      <c r="H17" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I17" s="6">
+        <v>43843</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L17" t="str">
+        <v>Hyderabad, India</v>
+      </c>
+      <c r="M17">
+        <v>4.441095890410959</v>
+      </c>
+      <c r="N17" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B18" t="str">
+        <v>PR00246</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Husein</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Augar</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F18" t="str">
+        <v>Marketing</v>
+      </c>
+      <c r="G18">
+        <v>67905.8</v>
+      </c>
+      <c r="H18" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I18" s="6">
+        <v>44194</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L18" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M18">
+        <v>3.4794520547945207</v>
+      </c>
+      <c r="N18" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" t="str">
+        <v>PR00746</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Hogan</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Iles</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F19" t="str">
+        <v>Accounting</v>
+      </c>
+      <c r="G19">
+        <v>114177.23</v>
+      </c>
+      <c r="H19" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I19" s="6">
+        <v>43908</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L19" t="str">
+        <v>Wellington, New Zealand</v>
+      </c>
+      <c r="M19">
+        <v>4.2630136986301368</v>
+      </c>
+      <c r="N19" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B20" t="str">
+        <v>PR00770</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Beryl</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Burnsyde</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F20" t="str">
+        <v>Legal</v>
+      </c>
+      <c r="G20">
+        <v>29774.76</v>
+      </c>
+      <c r="H20" t="str">
+        <v>Under 50k</v>
+      </c>
+      <c r="I20" s="6">
+        <v>44105</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L20" t="str">
+        <v>Wellington, New Zealand</v>
+      </c>
+      <c r="M20">
+        <v>3.7232876712328768</v>
+      </c>
+      <c r="N20" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21" t="str">
+        <v>PR00882</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Jill</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Shipsey</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F21" t="str">
+        <v>Accounting</v>
+      </c>
+      <c r="G21">
+        <v>52963.65</v>
+      </c>
+      <c r="H21" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I21" s="6">
+        <v>44288</v>
+      </c>
+      <c r="J21">
+        <v>0.3</v>
+      </c>
+      <c r="K21" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L21" t="str">
+        <v>Columbus, USA</v>
+      </c>
+      <c r="M21">
+        <v>3.2219178082191782</v>
+      </c>
+      <c r="N21" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B22" t="str">
+        <v>PR00893</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Vasavi</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Veeravasarapu</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F22" t="str">
+        <v>Human Resources</v>
+      </c>
+      <c r="G22">
+        <v>50310.09</v>
+      </c>
+      <c r="H22" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I22" s="6">
+        <v>44285</v>
+      </c>
+      <c r="J22">
+        <v>0.4</v>
+      </c>
+      <c r="K22" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L22" t="str">
+        <v>Hyderabad, India</v>
+      </c>
+      <c r="M22">
+        <v>3.2301369863013698</v>
+      </c>
+      <c r="N22" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B23" t="str">
+        <v>PR00916</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Inger</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Chapelhow</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F23" t="str">
+        <v>Research and Development</v>
+      </c>
+      <c r="G23">
+        <v>84309.95</v>
+      </c>
+      <c r="H23" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I23" s="6">
+        <v>44501</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L23" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M23">
+        <v>2.6383561643835618</v>
+      </c>
+      <c r="N23" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B24" t="str">
+        <v>PR01211</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Enoch</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Dowrey</v>
+      </c>
+      <c r="E24" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F24" t="str">
+        <v>Accounting</v>
+      </c>
+      <c r="G24">
+        <v>91645.04</v>
+      </c>
+      <c r="H24" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I24" s="6">
+        <v>44223</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L24" t="str">
+        <v>Auckland, New Zealand</v>
+      </c>
+      <c r="M24">
+        <v>3.4</v>
+      </c>
+      <c r="N24" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B25" t="str">
+        <v>PR01269</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Eleonore</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Airdrie</v>
+      </c>
+      <c r="E25" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F25" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="G25">
+        <v>97105.19</v>
+      </c>
+      <c r="H25" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I25" s="6">
+        <v>44425</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L25" t="str">
+        <v>Columbus, USA</v>
+      </c>
+      <c r="M25">
+        <v>2.8465753424657536</v>
+      </c>
+      <c r="N25" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B26" t="str">
+        <v>PR01306</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Patti</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Dradey</v>
+      </c>
+      <c r="E26" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F26" t="str">
+        <v>Services</v>
+      </c>
+      <c r="G26">
+        <v>84742.86</v>
+      </c>
+      <c r="H26" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I26" s="6">
+        <v>44098</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L26" t="str">
+        <v>Auckland, New Zealand</v>
+      </c>
+      <c r="M26">
+        <v>3.7424657534246575</v>
+      </c>
+      <c r="N26" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B27" t="str">
+        <v>PR01383</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Addi</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Studdeard</v>
+      </c>
+      <c r="E27" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F27" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="G27">
+        <v>72502.61</v>
+      </c>
+      <c r="H27" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I27" s="6">
+        <v>44235</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L27" t="str">
+        <v>Wellington, New Zealand</v>
+      </c>
+      <c r="M27">
+        <v>3.3671232876712329</v>
+      </c>
+      <c r="N27" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B28" t="str">
+        <v>PR02010</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Prerana</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Nishita</v>
+      </c>
+      <c r="E28" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F28" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="G28">
+        <v>115191.38</v>
+      </c>
+      <c r="H28" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I28" s="6">
+        <v>44004</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L28" t="str">
+        <v>Hyderabad, India</v>
+      </c>
+      <c r="M28">
+        <v>4</v>
+      </c>
+      <c r="N28" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B29" t="str">
+        <v>PR02113</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Beverie</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Moffet</v>
+      </c>
+      <c r="E29" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F29" t="str">
+        <v>Support</v>
+      </c>
+      <c r="G29">
+        <v>75974.990000000005</v>
+      </c>
+      <c r="H29" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I29" s="6">
+        <v>44172</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L29" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M29">
+        <v>3.5397260273972604</v>
+      </c>
+      <c r="N29" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B30" t="str">
+        <v>PR02208</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Gowri</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Sankar</v>
+      </c>
+      <c r="E30" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F30" t="str">
+        <v>Training</v>
+      </c>
+      <c r="G30">
+        <v>102934.09</v>
+      </c>
+      <c r="H30" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I30" s="6">
+        <v>44315</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L30" t="str">
+        <v>Hyderabad, India</v>
+      </c>
+      <c r="M30">
+        <v>3.1479452054794521</v>
+      </c>
+      <c r="N30" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B31" t="str">
+        <v>PR02288</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Althea</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Bronger</v>
+      </c>
+      <c r="E31" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F31" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="G31">
+        <v>104335.03999999999</v>
+      </c>
+      <c r="H31" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I31" s="6">
+        <v>43874</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L31" t="str">
+        <v>Columbus, USA</v>
+      </c>
+      <c r="M31">
+        <v>4.3561643835616435</v>
+      </c>
+      <c r="N31" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B32" t="str">
+        <v>PR03034</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Sreenivasa</v>
+      </c>
+      <c r="D32" t="str">
+        <v>Naik</v>
+      </c>
+      <c r="E32" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F32" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="G32">
+        <v>32192.15</v>
+      </c>
+      <c r="H32" t="str">
+        <v>Under 50k</v>
+      </c>
+      <c r="I32" s="6">
+        <v>44473</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L32" t="str">
+        <v>Hyderabad, India</v>
+      </c>
+      <c r="M32">
+        <v>2.7150684931506848</v>
+      </c>
+      <c r="N32" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B33" t="str">
+        <v>PR03137</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Jagajeet</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Viraj</v>
+      </c>
+      <c r="E33" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F33" t="str">
+        <v>Support</v>
+      </c>
+      <c r="G33">
+        <v>36714.379999999997</v>
+      </c>
+      <c r="H33" t="str">
+        <v>Under 50k</v>
+      </c>
+      <c r="I33" s="6">
+        <v>44175</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L33" t="str">
+        <v>Chennai, India</v>
+      </c>
+      <c r="M33">
+        <v>3.5315068493150683</v>
+      </c>
+      <c r="N33" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B34" t="str">
+        <v>PR03445</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Myrle</v>
+      </c>
+      <c r="D34" t="str">
+        <v>Prandoni</v>
+      </c>
+      <c r="E34" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F34" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="G34">
+        <v>62195.47</v>
+      </c>
+      <c r="H34" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I34" s="6">
+        <v>44434</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L34" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M34">
+        <v>2.8219178082191783</v>
+      </c>
+      <c r="N34" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B35" t="str">
+        <v>PR03532</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Crawford</v>
+      </c>
+      <c r="D35" t="str">
+        <v>Scad</v>
+      </c>
+      <c r="E35" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F35" t="str">
+        <v>Human Resources</v>
+      </c>
+      <c r="G35">
+        <v>72876.91</v>
+      </c>
+      <c r="H35" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I35" s="6">
+        <v>43837</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L35" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M35">
+        <v>4.4575342465753423</v>
+      </c>
+      <c r="N35" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B36" t="str">
+        <v>PR03804</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Pratigya</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Rema</v>
+      </c>
+      <c r="E36" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F36" t="str">
+        <v>Legal</v>
+      </c>
+      <c r="G36">
+        <v>66572.58</v>
+      </c>
+      <c r="H36" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I36" s="6">
+        <v>44193</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L36" t="str">
+        <v>Chennai, India</v>
+      </c>
+      <c r="M36">
+        <v>3.4821917808219176</v>
+      </c>
+      <c r="N36" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B37" t="str">
+        <v>PR03804</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Sartaj</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Probal</v>
+      </c>
+      <c r="E37" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F37" t="str">
+        <v>Legal</v>
+      </c>
+      <c r="G37">
+        <v>66572.58</v>
+      </c>
+      <c r="H37" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I37" s="6">
+        <v>44193</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L37" t="str">
+        <v>Chennai, India</v>
+      </c>
+      <c r="M37">
+        <v>3.4821917808219176</v>
+      </c>
+      <c r="N37" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B38" t="str">
+        <v>PR03844</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Brose</v>
+      </c>
+      <c r="D38" t="str">
+        <v>MacCorkell</v>
+      </c>
+      <c r="E38" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F38" t="str">
+        <v>Human Resources</v>
+      </c>
+      <c r="G38">
+        <v>35943.620000000003</v>
+      </c>
+      <c r="H38" t="str">
+        <v>Under 50k</v>
+      </c>
+      <c r="I38" s="6">
+        <v>44078</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L38" t="str">
+        <v>Columbus, USA</v>
+      </c>
+      <c r="M38">
+        <v>3.7972602739726029</v>
+      </c>
+      <c r="N38" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B39" t="str">
+        <v>PR03886</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Edd</v>
+      </c>
+      <c r="D39" t="str">
+        <v>MacKnockiter</v>
+      </c>
+      <c r="E39" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F39" t="str">
+        <v>Accounting</v>
+      </c>
+      <c r="G39">
+        <v>119022.49</v>
+      </c>
+      <c r="H39" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I39" s="6">
+        <v>44431</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L39" t="str">
+        <v>Auckland, New Zealand</v>
+      </c>
+      <c r="M39">
+        <v>2.8301369863013699</v>
+      </c>
+      <c r="N39" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B40" t="str">
+        <v>PR03980</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Kath</v>
+      </c>
+      <c r="D40" t="str">
+        <v>Bletsoe</v>
+      </c>
+      <c r="E40" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F40" t="str">
+        <v>Marketing</v>
+      </c>
+      <c r="G40">
+        <v>65699.02</v>
+      </c>
+      <c r="H40" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I40" s="6">
+        <v>43951</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L40" t="str">
+        <v>Columbus, USA</v>
+      </c>
+      <c r="M40">
+        <v>4.1452054794520548</v>
+      </c>
+      <c r="N40" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B41" t="str">
+        <v>PR04446</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Sameer</v>
+      </c>
+      <c r="D41" t="str">
+        <v>Shashank</v>
+      </c>
+      <c r="E41" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F41" t="str">
+        <v>Research and Development</v>
+      </c>
+      <c r="G41">
+        <v>92336.08</v>
+      </c>
+      <c r="H41" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I41" s="6">
+        <v>44431</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L41" t="str">
+        <v>Hyderabad, India</v>
+      </c>
+      <c r="M41">
+        <v>2.8301369863013699</v>
+      </c>
+      <c r="N41" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B42" t="str">
+        <v>PR04473</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Wyn</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Treadger</v>
+      </c>
+      <c r="E42" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F42" t="str">
+        <v>Business Development</v>
+      </c>
+      <c r="G42">
+        <v>69192.850000000006</v>
+      </c>
+      <c r="H42" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I42" s="6">
+        <v>44305</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L42" t="str">
+        <v>Columbus, USA</v>
+      </c>
+      <c r="M42">
+        <v>3.1753424657534248</v>
+      </c>
+      <c r="N42" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B43" t="str">
+        <v>PR04601</v>
+      </c>
+      <c r="C43" t="str">
+        <v>Yedukondalu</v>
+      </c>
+      <c r="D43" t="str">
+        <v>Panditula</v>
+      </c>
+      <c r="E43" t="str">
+        <v>Need to check</v>
+      </c>
+      <c r="F43" t="str">
+        <v>Support</v>
+      </c>
+      <c r="G43">
+        <v>104802.63</v>
+      </c>
+      <c r="H43" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I43" s="6">
+        <v>44502</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L43" t="str">
+        <v>Hyderabad, India</v>
+      </c>
+      <c r="M43">
+        <v>2.6356164383561644</v>
+      </c>
+      <c r="N43" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B44" t="str">
+        <v>SQ00022</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Carlin</v>
+      </c>
+      <c r="D44" t="str">
+        <v>Demke</v>
+      </c>
+      <c r="E44" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F44" t="str">
+        <v>Business Development</v>
+      </c>
+      <c r="G44">
+        <v>110042.37</v>
+      </c>
+      <c r="H44" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I44" s="6">
+        <v>43914</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L44" t="str">
+        <v>Columbus, USA</v>
+      </c>
+      <c r="M44">
+        <v>4.2465753424657535</v>
+      </c>
+      <c r="N44" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B45" t="str">
+        <v>SQ00144</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Collen</v>
+      </c>
+      <c r="D45" t="str">
+        <v>Dunbleton</v>
+      </c>
+      <c r="E45" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F45" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="G45">
+        <v>118976.16</v>
+      </c>
+      <c r="H45" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I45" s="6">
+        <v>44120</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L45" t="str">
+        <v>Wellington, New Zealand</v>
+      </c>
+      <c r="M45">
+        <v>3.6821917808219178</v>
+      </c>
+      <c r="N45" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B46" t="str">
+        <v>SQ00187</v>
+      </c>
+      <c r="C46" t="str">
+        <v>Rupak</v>
+      </c>
+      <c r="D46" t="str">
+        <v>Mehra</v>
+      </c>
+      <c r="E46" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F46" t="str">
+        <v>Services</v>
+      </c>
+      <c r="G46">
+        <v>71229.42</v>
+      </c>
+      <c r="H46" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I46" s="6">
+        <v>44166</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L46" t="str">
+        <v>Hyderabad, India</v>
+      </c>
+      <c r="M46">
+        <v>3.5561643835616437</v>
+      </c>
+      <c r="N46" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B47" t="str">
+        <v>SQ00286</v>
+      </c>
+      <c r="C47" t="str">
+        <v>Ilesh</v>
+      </c>
+      <c r="D47" t="str">
+        <v>Dasgupta</v>
+      </c>
+      <c r="E47" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F47" t="str">
+        <v>Legal</v>
+      </c>
+      <c r="G47">
+        <v>61213.01</v>
+      </c>
+      <c r="H47" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I47" s="6">
+        <v>44365</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L47" t="str">
+        <v>Chennai, India</v>
+      </c>
+      <c r="M47">
+        <v>3.010958904109589</v>
+      </c>
+      <c r="N47" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B48" t="str">
+        <v>SQ00450</v>
+      </c>
+      <c r="C48" t="str">
+        <v>Louise</v>
+      </c>
+      <c r="D48" t="str">
+        <v>Lamming</v>
+      </c>
+      <c r="E48" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F48" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="G48">
+        <v>41934.71</v>
+      </c>
+      <c r="H48" t="str">
+        <v>Under 50k</v>
+      </c>
+      <c r="I48" s="6">
+        <v>43943</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L48" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M48">
+        <v>4.1671232876712327</v>
+      </c>
+      <c r="N48" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B49" t="str">
+        <v>SQ00498</v>
+      </c>
+      <c r="C49" t="str">
+        <v>Amery</v>
+      </c>
+      <c r="D49" t="str">
+        <v>Ofer</v>
+      </c>
+      <c r="E49" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F49" t="str">
+        <v>Legal</v>
+      </c>
+      <c r="G49">
+        <v>111049.84</v>
+      </c>
+      <c r="H49" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I49" s="6">
+        <v>44393</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L49" t="str">
+        <v>Wellington, New Zealand</v>
+      </c>
+      <c r="M49">
+        <v>2.9342465753424656</v>
+      </c>
+      <c r="N49" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B50" t="str">
+        <v>SQ00914</v>
+      </c>
+      <c r="C50" t="str">
+        <v>Duran</v>
+      </c>
+      <c r="D50" t="str">
+        <v>Appala</v>
+      </c>
+      <c r="E50" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F50" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="G50">
+        <v>38438.239999999998</v>
+      </c>
+      <c r="H50" t="str">
+        <v>Under 50k</v>
+      </c>
+      <c r="I50" s="6">
+        <v>43962</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L50" t="str">
+        <v>Chennai, India</v>
+      </c>
+      <c r="M50">
+        <v>4.1150684931506847</v>
+      </c>
+      <c r="N50" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B51" t="str">
+        <v>SQ00914</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Karuna</v>
+      </c>
+      <c r="D51" t="str">
+        <v>Pashupathy</v>
+      </c>
+      <c r="E51" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F51" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="G51">
+        <v>38438.239999999998</v>
+      </c>
+      <c r="H51" t="str">
+        <v>Under 50k</v>
+      </c>
+      <c r="I51" s="6">
+        <v>43962</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L51" t="str">
+        <v>Chennai, India</v>
+      </c>
+      <c r="M51">
+        <v>4.1150684931506847</v>
+      </c>
+      <c r="N51" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B52" t="str">
+        <v>SQ00960</v>
+      </c>
+      <c r="C52" t="str">
+        <v>Calvin</v>
+      </c>
+      <c r="D52" t="str">
+        <v>O'Carroll</v>
+      </c>
+      <c r="E52" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F52" t="str">
+        <v>Research and Development</v>
+      </c>
+      <c r="G52">
+        <v>44447.26</v>
+      </c>
+      <c r="H52" t="str">
+        <v>Under 50k</v>
+      </c>
+      <c r="I52" s="6">
+        <v>43846</v>
+      </c>
+      <c r="J52">
+        <v>0.4</v>
+      </c>
+      <c r="K52" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L52" t="str">
+        <v>Seattle, USA</v>
+      </c>
+      <c r="M52">
+        <v>4.4328767123287669</v>
+      </c>
+      <c r="N52" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B53" t="str">
+        <v>SQ01026</v>
+      </c>
+      <c r="C53" t="str">
+        <v>Anumati</v>
+      </c>
+      <c r="D53" t="str">
+        <v>Shyamari</v>
+      </c>
+      <c r="E53" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F53" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="G53">
+        <v>74924.649999999994</v>
+      </c>
+      <c r="H53" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I53" s="6">
+        <v>44239</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L53" t="str">
+        <v>Hyderabad, India</v>
+      </c>
+      <c r="M53">
+        <v>3.3561643835616439</v>
+      </c>
+      <c r="N53" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B54" t="str">
+        <v>SQ01177</v>
+      </c>
+      <c r="C54" t="str">
+        <v>Nazeer</v>
+      </c>
+      <c r="D54" t="str">
+        <v>Basha</v>
+      </c>
+      <c r="E54" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F54" t="str">
+        <v>Human Resources</v>
+      </c>
+      <c r="G54">
+        <v>86556.96</v>
+      </c>
+      <c r="H54" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I54" s="6">
+        <v>44104</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L54" t="str">
+        <v>Hyderabad, India</v>
+      </c>
+      <c r="M54">
+        <v>3.7260273972602738</v>
+      </c>
+      <c r="N54" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B55" t="str">
+        <v>SQ01283</v>
+      </c>
+      <c r="C55" t="str">
+        <v>Barr</v>
+      </c>
+      <c r="D55" t="str">
+        <v>Faughny</v>
+      </c>
+      <c r="E55" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F55" t="str">
+        <v>Marketing</v>
+      </c>
+      <c r="G55">
+        <v>68008.55</v>
+      </c>
+      <c r="H55" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I55" s="6">
+        <v>44062</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L55" t="str">
+        <v>Auckland, New Zealand</v>
+      </c>
+      <c r="M55">
+        <v>3.8410958904109589</v>
+      </c>
+      <c r="N55" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B56" t="str">
+        <v>SQ01395</v>
+      </c>
+      <c r="C56" t="str">
+        <v>Dennison</v>
+      </c>
+      <c r="D56" t="str">
+        <v>Crosswaite</v>
+      </c>
+      <c r="E56" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F56" t="str">
+        <v>Legal</v>
+      </c>
+      <c r="G56">
+        <v>90697.67</v>
+      </c>
+      <c r="H56" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I56" s="6">
+        <v>44221</v>
+      </c>
+      <c r="J56">
+        <v>0.8</v>
+      </c>
+      <c r="K56" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L56" t="str">
+        <v>Seattle, USA</v>
+      </c>
+      <c r="M56">
+        <v>3.4054794520547946</v>
+      </c>
+      <c r="N56" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B57" t="str">
+        <v>SQ01998</v>
+      </c>
+      <c r="C57" t="str">
+        <v>Vanmala</v>
+      </c>
+      <c r="D57" t="str">
+        <v>Shriharsha</v>
+      </c>
+      <c r="E57" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F57" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="G57">
+        <v>40445.29</v>
+      </c>
+      <c r="H57" t="str">
+        <v>Under 50k</v>
+      </c>
+      <c r="I57" s="6">
+        <v>44393</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L57" t="str">
+        <v>Chennai, India</v>
+      </c>
+      <c r="M57">
+        <v>2.9342465753424656</v>
+      </c>
+      <c r="N57" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B58" t="str">
+        <v>SQ01998</v>
+      </c>
+      <c r="C58" t="str">
+        <v>Sahas</v>
+      </c>
+      <c r="D58" t="str">
+        <v>Sanabhi</v>
+      </c>
+      <c r="E58" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F58" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="G58">
+        <v>40445.29</v>
+      </c>
+      <c r="H58" t="str">
+        <v>Under 50k</v>
+      </c>
+      <c r="I58" s="6">
+        <v>44393</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L58" t="str">
+        <v>Chennai, India</v>
+      </c>
+      <c r="M58">
+        <v>2.9342465753424656</v>
+      </c>
+      <c r="N58" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B59" t="str">
+        <v>SQ02174</v>
+      </c>
+      <c r="C59" t="str">
+        <v>Sidoney</v>
+      </c>
+      <c r="D59" t="str">
+        <v>Yitzhok</v>
+      </c>
+      <c r="E59" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F59" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="G59">
+        <v>118442.54</v>
+      </c>
+      <c r="H59" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I59" s="6">
+        <v>44193</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L59" t="str">
+        <v>Auckland, New Zealand</v>
+      </c>
+      <c r="M59">
+        <v>3.4821917808219176</v>
+      </c>
+      <c r="N59" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B60" t="str">
+        <v>SQ02246</v>
+      </c>
+      <c r="C60" t="str">
+        <v>Matias</v>
+      </c>
+      <c r="D60" t="str">
+        <v>Cormack</v>
+      </c>
+      <c r="E60" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F60" t="str">
+        <v>Research and Development</v>
+      </c>
+      <c r="G60">
+        <v>85455.53</v>
+      </c>
+      <c r="H60" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I60" s="6">
+        <v>43839</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L60" t="str">
+        <v>Wellington, New Zealand</v>
+      </c>
+      <c r="M60">
+        <v>4.4520547945205475</v>
+      </c>
+      <c r="N60" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B61" t="str">
+        <v>SQ02525</v>
+      </c>
+      <c r="C61" t="str">
+        <v>Mickie</v>
+      </c>
+      <c r="D61" t="str">
+        <v>Dagwell</v>
+      </c>
+      <c r="E61" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F61" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="G61">
+        <v>50855.53</v>
+      </c>
+      <c r="H61" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I61" s="6">
+        <v>44221</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L61" t="str">
+        <v>Wellington, New Zealand</v>
+      </c>
+      <c r="M61">
+        <v>3.4054794520547946</v>
+      </c>
+      <c r="N61" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B62" t="str">
+        <v>SQ02565</v>
+      </c>
+      <c r="C62" t="str">
+        <v>Konstantin</v>
+      </c>
+      <c r="D62" t="str">
+        <v>Timblett</v>
+      </c>
+      <c r="E62" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F62" t="str">
+        <v>Training</v>
+      </c>
+      <c r="G62">
+        <v>56253.81</v>
+      </c>
+      <c r="H62" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I62" s="6">
+        <v>44421</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L62" t="str">
+        <v>Auckland, New Zealand</v>
+      </c>
+      <c r="M62">
+        <v>2.8575342465753426</v>
+      </c>
+      <c r="N62" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B63" t="str">
+        <v>SQ02624</v>
+      </c>
+      <c r="C63" t="str">
+        <v>Gwenneth</v>
+      </c>
+      <c r="D63" t="str">
+        <v>Fealey</v>
+      </c>
+      <c r="E63" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F63" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="G63">
+        <v>114772.32</v>
+      </c>
+      <c r="H63" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I63" s="6">
+        <v>44251</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L63" t="str">
+        <v>Columbus, USA</v>
+      </c>
+      <c r="M63">
+        <v>3.3232876712328765</v>
+      </c>
+      <c r="N63" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B64" t="str">
+        <v>SQ03112</v>
+      </c>
+      <c r="C64" t="str">
+        <v>Kantimoy</v>
+      </c>
+      <c r="D64" t="str">
+        <v>Pritish</v>
+      </c>
+      <c r="E64" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F64" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="G64">
+        <v>77743.149999999994</v>
+      </c>
+      <c r="H64" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I64" s="6">
+        <v>43920</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L64" t="str">
+        <v>Chennai, India</v>
+      </c>
+      <c r="M64">
+        <v>4.2301369863013702</v>
+      </c>
+      <c r="N64" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B65" t="str">
+        <v>SQ03387</v>
+      </c>
+      <c r="C65" t="str">
+        <v>Robinia</v>
+      </c>
+      <c r="D65" t="str">
+        <v>Scholling</v>
+      </c>
+      <c r="E65" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F65" t="str">
+        <v>Human Resources</v>
+      </c>
+      <c r="G65">
+        <v>100731.95</v>
+      </c>
+      <c r="H65" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I65" s="6">
+        <v>43936</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L65" t="str">
+        <v>Auckland, New Zealand</v>
+      </c>
+      <c r="M65">
+        <v>4.1863013698630134</v>
+      </c>
+      <c r="N65" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B66" t="str">
+        <v>SQ03491</v>
+      </c>
+      <c r="C66" t="str">
+        <v>Freda</v>
+      </c>
+      <c r="D66" t="str">
+        <v>Legan</v>
+      </c>
+      <c r="E66" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F66" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="G66">
+        <v>102129.37</v>
+      </c>
+      <c r="H66" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I66" s="6">
+        <v>44396</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L66" t="str">
+        <v>Columbus, USA</v>
+      </c>
+      <c r="M66">
+        <v>2.9260273972602739</v>
+      </c>
+      <c r="N66" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B67" t="str">
+        <v>SQ03546</v>
+      </c>
+      <c r="C67" t="str">
+        <v>Amlankusum</v>
+      </c>
+      <c r="D67" t="str">
+        <v>Rajabhushan</v>
+      </c>
+      <c r="E67" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F67" t="str">
+        <v>Legal</v>
+      </c>
+      <c r="G67">
+        <v>75733.740000000005</v>
+      </c>
+      <c r="H67" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I67" s="6">
+        <v>44382</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L67" t="str">
+        <v>Hyderabad, India</v>
+      </c>
+      <c r="M67">
+        <v>2.9643835616438357</v>
+      </c>
+      <c r="N67" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B68" t="str">
+        <v>SQ03625</v>
+      </c>
+      <c r="C68" t="str">
+        <v>Fidela</v>
+      </c>
+      <c r="D68" t="str">
+        <v>Artis</v>
+      </c>
+      <c r="E68" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F68" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="G68">
+        <v>78020.39</v>
+      </c>
+      <c r="H68" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I68" s="6">
+        <v>43899</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L68" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M68">
+        <v>4.2876712328767121</v>
+      </c>
+      <c r="N68" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B69" t="str">
+        <v>SQ03626</v>
+      </c>
+      <c r="C69" t="str">
+        <v>Krishnakanta</v>
+      </c>
+      <c r="D69" t="str">
+        <v>Vellanki</v>
+      </c>
+      <c r="E69" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F69" t="str">
+        <v>Training</v>
+      </c>
+      <c r="G69">
+        <v>95677.9</v>
+      </c>
+      <c r="H69" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I69" s="6">
+        <v>44396</v>
+      </c>
+      <c r="J69">
+        <v>0.3</v>
+      </c>
+      <c r="K69" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L69" t="str">
+        <v>Chennai, India</v>
+      </c>
+      <c r="M69">
+        <v>2.9260273972602739</v>
+      </c>
+      <c r="N69" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B70" t="str">
+        <v>SQ03733</v>
+      </c>
+      <c r="C70" t="str">
+        <v>Revkah</v>
+      </c>
+      <c r="D70" t="str">
+        <v>Antonacci</v>
+      </c>
+      <c r="E70" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F70" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="G70">
+        <v>109143.17</v>
+      </c>
+      <c r="H70" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I70" s="6">
+        <v>43945</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L70" t="str">
+        <v>Wellington, New Zealand</v>
+      </c>
+      <c r="M70">
+        <v>4.161643835616438</v>
+      </c>
+      <c r="N70" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B71" t="str">
+        <v>SQ04612</v>
+      </c>
+      <c r="C71" t="str">
+        <v>Mick</v>
+      </c>
+      <c r="D71" t="str">
+        <v>Spraberry</v>
+      </c>
+      <c r="E71" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F71" t="str">
+        <v>Services</v>
+      </c>
+      <c r="G71">
+        <v>120000</v>
+      </c>
+      <c r="H71" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I71" s="6">
+        <v>43902</v>
+      </c>
+      <c r="J71">
+        <v>0.9</v>
+      </c>
+      <c r="K71" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L71" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M71">
+        <v>4.279452054794521</v>
+      </c>
+      <c r="N71" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B72" t="str">
+        <v>TN00227</v>
+      </c>
+      <c r="C72" t="str">
+        <v>Raghuveer</v>
+      </c>
+      <c r="D72" t="str">
+        <v>Yettugunna</v>
+      </c>
+      <c r="E72" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F72" t="str">
+        <v>Support</v>
+      </c>
+      <c r="G72">
+        <v>63555.73</v>
+      </c>
+      <c r="H72" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I72" s="6">
+        <v>44159</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L72" t="str">
+        <v>Chennai, India</v>
+      </c>
+      <c r="M72">
+        <v>3.5753424657534247</v>
+      </c>
+      <c r="N72" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B73" t="str">
+        <v>TN00258</v>
+      </c>
+      <c r="C73" t="str">
+        <v>Joyce</v>
+      </c>
+      <c r="D73" t="str">
+        <v>Leyband</v>
+      </c>
+      <c r="E73" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F73" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="G73">
+        <v>68197.899999999994</v>
+      </c>
+      <c r="H73" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I73" s="6">
+        <v>44119</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L73" t="str">
+        <v>Auckland, New Zealand</v>
+      </c>
+      <c r="M73">
+        <v>3.6849315068493151</v>
+      </c>
+      <c r="N73" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B74" t="str">
+        <v>TN00464</v>
+      </c>
+      <c r="C74" t="str">
+        <v>Gopal</v>
+      </c>
+      <c r="D74" t="str">
+        <v>Venkata</v>
+      </c>
+      <c r="E74" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F74" t="str">
+        <v>Research and Development</v>
+      </c>
+      <c r="G74">
+        <v>52748.63</v>
+      </c>
+      <c r="H74" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I74" s="6">
+        <v>43857</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L74" t="str">
+        <v>Chennai, India</v>
+      </c>
+      <c r="M74">
+        <v>4.4027397260273968</v>
+      </c>
+      <c r="N74" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B75" t="str">
+        <v>TN00579</v>
+      </c>
+      <c r="C75" t="str">
+        <v>Rafaelita</v>
+      </c>
+      <c r="D75" t="str">
+        <v>Blaksland</v>
+      </c>
+      <c r="E75" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F75" t="str">
+        <v>Services</v>
+      </c>
+      <c r="G75">
+        <v>109163.39</v>
+      </c>
+      <c r="H75" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I75" s="6">
+        <v>44019</v>
+      </c>
+      <c r="J75">
+        <v>0.8</v>
+      </c>
+      <c r="K75" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L75" t="str">
+        <v>Seattle, USA</v>
+      </c>
+      <c r="M75">
+        <v>3.9589041095890409</v>
+      </c>
+      <c r="N75" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B76" t="str">
+        <v>TN00890</v>
+      </c>
+      <c r="C76" t="str">
+        <v>Mayur</v>
+      </c>
+      <c r="D76" t="str">
+        <v>Kousika</v>
+      </c>
+      <c r="E76" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F76" t="str">
+        <v>Training</v>
+      </c>
+      <c r="G76">
+        <v>71570.990000000005</v>
+      </c>
+      <c r="H76" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I76" s="6">
+        <v>44249</v>
+      </c>
+      <c r="J76">
+        <v>0.5</v>
+      </c>
+      <c r="K76" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L76" t="str">
+        <v>Hyderabad, India</v>
+      </c>
+      <c r="M76">
+        <v>3.3287671232876712</v>
+      </c>
+      <c r="N76" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B77" t="str">
+        <v>TN01256</v>
+      </c>
+      <c r="C77" t="str">
+        <v>Shattesh</v>
+      </c>
+      <c r="D77" t="str">
+        <v>Utpat</v>
+      </c>
+      <c r="E77" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F77" t="str">
+        <v>Legal</v>
+      </c>
+      <c r="G77">
+        <v>28481.16</v>
+      </c>
+      <c r="H77" t="str">
+        <v>Under 50k</v>
+      </c>
+      <c r="I77" s="6">
+        <v>43916</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L77" t="str">
+        <v>Hyderabad, India</v>
+      </c>
+      <c r="M77">
+        <v>4.2410958904109588</v>
+      </c>
+      <c r="N77" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B78" t="str">
+        <v>TN01256</v>
+      </c>
+      <c r="C78" t="str">
+        <v>Sawini</v>
+      </c>
+      <c r="D78" t="str">
+        <v>Chandan</v>
+      </c>
+      <c r="E78" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F78" t="str">
+        <v>Legal</v>
+      </c>
+      <c r="G78">
+        <v>28481.16</v>
+      </c>
+      <c r="H78" t="str">
+        <v>Under 50k</v>
+      </c>
+      <c r="I78" s="6">
+        <v>43916</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L78" t="str">
+        <v>Hyderabad, India</v>
+      </c>
+      <c r="M78">
+        <v>4.2410958904109588</v>
+      </c>
+      <c r="N78" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B79" t="str">
+        <v>TN01281</v>
+      </c>
+      <c r="C79" t="str">
+        <v>Cletus</v>
+      </c>
+      <c r="D79" t="str">
+        <v>McGarahan</v>
+      </c>
+      <c r="E79" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F79" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="G79">
+        <v>114425.19</v>
+      </c>
+      <c r="H79" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I79" s="6">
+        <v>43857</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L79" t="str">
+        <v>Wellington, New Zealand</v>
+      </c>
+      <c r="M79">
+        <v>4.4027397260273968</v>
+      </c>
+      <c r="N79" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B80" t="str">
+        <v>TN01340</v>
+      </c>
+      <c r="C80" t="str">
+        <v>Granny</v>
+      </c>
+      <c r="D80" t="str">
+        <v>Spencelayh</v>
+      </c>
+      <c r="E80" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F80" t="str">
+        <v>Legal</v>
+      </c>
+      <c r="G80">
+        <v>99460.78</v>
+      </c>
+      <c r="H80" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I80" s="6">
+        <v>43956</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L80" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M80">
+        <v>4.1315068493150688</v>
+      </c>
+      <c r="N80" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B81" t="str">
+        <v>TN01566</v>
+      </c>
+      <c r="C81" t="str">
+        <v>Fonzie</v>
+      </c>
+      <c r="D81" t="str">
+        <v>O'Shea</v>
+      </c>
+      <c r="E81" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F81" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="G81">
+        <v>80360.41</v>
+      </c>
+      <c r="H81" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I81" s="6">
+        <v>44167</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L81" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M81">
+        <v>3.5534246575342467</v>
+      </c>
+      <c r="N81" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B82" t="str">
+        <v>TN01601</v>
+      </c>
+      <c r="C82" t="str">
+        <v>Melva</v>
+      </c>
+      <c r="D82" t="str">
+        <v>Jickells</v>
+      </c>
+      <c r="E82" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F82" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="G82">
+        <v>68795.48</v>
+      </c>
+      <c r="H82" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I82" s="6">
+        <v>44277</v>
+      </c>
+      <c r="J82">
+        <v>0.2</v>
+      </c>
+      <c r="K82" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L82" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M82">
+        <v>3.2520547945205478</v>
+      </c>
+      <c r="N82" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B83" t="str">
+        <v>TN01601</v>
+      </c>
+      <c r="C83" t="str">
+        <v>Melva</v>
+      </c>
+      <c r="D83" t="str">
+        <v>Jickells</v>
+      </c>
+      <c r="E83" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F83" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="G83">
+        <v>68795.48</v>
+      </c>
+      <c r="H83" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I83" s="6">
+        <v>44277</v>
+      </c>
+      <c r="J83">
+        <v>0.2</v>
+      </c>
+      <c r="K83" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L83" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M83">
+        <v>3.2520547945205478</v>
+      </c>
+      <c r="N83" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B84" t="str">
+        <v>TN01632</v>
+      </c>
+      <c r="C84" t="str">
+        <v>Katya</v>
+      </c>
+      <c r="D84" t="str">
+        <v>Hundy</v>
+      </c>
+      <c r="E84" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F84" t="str">
+        <v>Business Development</v>
+      </c>
+      <c r="G84">
+        <v>88511.17</v>
+      </c>
+      <c r="H84" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I84" s="6">
+        <v>43950</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L84" t="str">
+        <v>Columbus, USA</v>
+      </c>
+      <c r="M84">
+        <v>4.1479452054794521</v>
+      </c>
+      <c r="N84" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B85" t="str">
+        <v>TN01876</v>
+      </c>
+      <c r="C85" t="str">
+        <v>Aileen</v>
+      </c>
+      <c r="D85" t="str">
+        <v>McCritchie</v>
+      </c>
+      <c r="E85" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F85" t="str">
+        <v>Business Development</v>
+      </c>
+      <c r="G85">
+        <v>80169.42</v>
+      </c>
+      <c r="H85" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I85" s="6">
+        <v>44053</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L85" t="str">
+        <v>Auckland, New Zealand</v>
+      </c>
+      <c r="M85">
+        <v>3.8657534246575342</v>
+      </c>
+      <c r="N85" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B86" t="str">
+        <v>TN01876</v>
+      </c>
+      <c r="C86" t="str">
+        <v>Aileen</v>
+      </c>
+      <c r="D86" t="str">
+        <v>McCritchie</v>
+      </c>
+      <c r="E86" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F86" t="str">
+        <v>Business Development</v>
+      </c>
+      <c r="G86">
+        <v>80169.42</v>
+      </c>
+      <c r="H86" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I86" s="6">
+        <v>44053</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L86" t="str">
+        <v>Auckland, New Zealand</v>
+      </c>
+      <c r="M86">
+        <v>3.8657534246575342</v>
+      </c>
+      <c r="N86" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B87" t="str">
+        <v>TN02204</v>
+      </c>
+      <c r="C87" t="str">
+        <v>Aldrich</v>
+      </c>
+      <c r="D87" t="str">
+        <v>Glenny</v>
+      </c>
+      <c r="E87" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F87" t="str">
+        <v>Business Development</v>
+      </c>
+      <c r="G87">
+        <v>90884.32</v>
+      </c>
+      <c r="H87" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I87" s="6">
+        <v>44039</v>
+      </c>
+      <c r="J87">
+        <v>0.5</v>
+      </c>
+      <c r="K87" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L87" t="str">
+        <v>Columbus, USA</v>
+      </c>
+      <c r="M87">
+        <v>3.904109589041096</v>
+      </c>
+      <c r="N87" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B88" t="str">
+        <v>TN02674</v>
+      </c>
+      <c r="C88" t="str">
+        <v>Antonetta</v>
+      </c>
+      <c r="D88" t="str">
+        <v>Coggeshall</v>
+      </c>
+      <c r="E88" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F88" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="G88">
+        <v>96753.78</v>
+      </c>
+      <c r="H88" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I88" s="6">
+        <v>44494</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L88" t="str">
+        <v>Auckland, New Zealand</v>
+      </c>
+      <c r="M88">
+        <v>2.6575342465753424</v>
+      </c>
+      <c r="N88" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B89" t="str">
+        <v>TN02674</v>
+      </c>
+      <c r="C89" t="str">
+        <v>Antonetta</v>
+      </c>
+      <c r="D89" t="str">
+        <v>Coggeshall</v>
+      </c>
+      <c r="E89" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F89" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="G89">
+        <v>96753.78</v>
+      </c>
+      <c r="H89" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I89" s="6">
+        <v>44494</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L89" t="str">
+        <v>Auckland, New Zealand</v>
+      </c>
+      <c r="M89">
+        <v>2.6575342465753424</v>
+      </c>
+      <c r="N89" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B90" t="str">
+        <v>TN02988</v>
+      </c>
+      <c r="C90" t="str">
+        <v>Mahindra</v>
+      </c>
+      <c r="D90" t="str">
+        <v>Sreedharan</v>
+      </c>
+      <c r="E90" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F90" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="G90">
+        <v>92943.89</v>
+      </c>
+      <c r="H90" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I90" s="6">
+        <v>44510</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L90" t="str">
+        <v>Hyderabad, India</v>
+      </c>
+      <c r="M90">
+        <v>2.6136986301369864</v>
+      </c>
+      <c r="N90" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B91" t="str">
+        <v>TN03032</v>
+      </c>
+      <c r="C91" t="str">
+        <v>Jaipal</v>
+      </c>
+      <c r="D91" t="str">
+        <v>Potanapudi</v>
+      </c>
+      <c r="E91" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F91" t="str">
+        <v>Research and Development</v>
+      </c>
+      <c r="G91">
+        <v>39700.82</v>
+      </c>
+      <c r="H91" t="str">
+        <v>Under 50k</v>
+      </c>
+      <c r="I91" s="6">
+        <v>44203</v>
+      </c>
+      <c r="J91">
+        <v>0.8</v>
+      </c>
+      <c r="K91" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L91" t="str">
+        <v>Chennai, India</v>
+      </c>
+      <c r="M91">
+        <v>3.4547945205479453</v>
+      </c>
+      <c r="N91" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B92" t="str">
+        <v>TN03032</v>
+      </c>
+      <c r="C92" t="str">
+        <v>Fullara</v>
+      </c>
+      <c r="D92" t="str">
+        <v>Sushanti</v>
+      </c>
+      <c r="E92" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F92" t="str">
+        <v>Research and Development</v>
+      </c>
+      <c r="G92">
+        <v>39700.82</v>
+      </c>
+      <c r="H92" t="str">
+        <v>Under 50k</v>
+      </c>
+      <c r="I92" s="6">
+        <v>44203</v>
+      </c>
+      <c r="J92">
+        <v>0.8</v>
+      </c>
+      <c r="K92" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L92" t="str">
+        <v>Chennai, India</v>
+      </c>
+      <c r="M92">
+        <v>3.4547945205479453</v>
+      </c>
+      <c r="N92" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B93" t="str">
+        <v>TN04166</v>
+      </c>
+      <c r="C93" t="str">
+        <v>Tadio</v>
+      </c>
+      <c r="D93" t="str">
+        <v>Dowdle</v>
+      </c>
+      <c r="E93" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F93" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="G93">
+        <v>91929.69</v>
+      </c>
+      <c r="H93" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I93" s="6">
+        <v>44085</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93" t="str">
+        <v>Fixed Term</v>
+      </c>
+      <c r="L93" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M93">
+        <v>3.7780821917808218</v>
+      </c>
+      <c r="N93" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B94" t="str">
+        <v>TN04246</v>
+      </c>
+      <c r="C94" t="str">
+        <v>Shaylyn</v>
+      </c>
+      <c r="D94" t="str">
+        <v>Ransbury</v>
+      </c>
+      <c r="E94" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F94" t="str">
+        <v>Support</v>
+      </c>
+      <c r="G94">
+        <v>100371.31</v>
+      </c>
+      <c r="H94" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I94" s="6">
+        <v>44067</v>
+      </c>
+      <c r="J94">
+        <v>0.8</v>
+      </c>
+      <c r="K94" t="str">
+        <v>Fixed Term</v>
+      </c>
+      <c r="L94" t="str">
+        <v>Auckland, New Zealand</v>
+      </c>
+      <c r="M94">
+        <v>3.8273972602739725</v>
+      </c>
+      <c r="N94" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B95" t="str">
+        <v>TN04265</v>
+      </c>
+      <c r="C95" t="str">
+        <v>Rushil</v>
+      </c>
+      <c r="D95" t="str">
+        <v>Kripa</v>
+      </c>
+      <c r="E95" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F95" t="str">
+        <v>Training</v>
+      </c>
+      <c r="G95">
+        <v>93964.3</v>
+      </c>
+      <c r="H95" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I95" s="6">
+        <v>44454</v>
+      </c>
+      <c r="J95">
+        <v>0.4</v>
+      </c>
+      <c r="K95" t="str">
+        <v>Fixed Term</v>
+      </c>
+      <c r="L95" t="str">
+        <v>Hyderabad, India</v>
+      </c>
+      <c r="M95">
+        <v>2.7671232876712328</v>
+      </c>
+      <c r="N95" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B96" t="str">
+        <v>TN04660</v>
+      </c>
+      <c r="C96" t="str">
+        <v>Thedrick</v>
+      </c>
+      <c r="D96" t="str">
+        <v>Bothwell</v>
+      </c>
+      <c r="E96" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F96" t="str">
+        <v>Business Development</v>
+      </c>
+      <c r="G96">
+        <v>69764.100000000006</v>
+      </c>
+      <c r="H96" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I96" s="6">
+        <v>44195</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96" t="str">
+        <v>Fixed Term</v>
+      </c>
+      <c r="L96" t="str">
+        <v>Seattle, USA</v>
+      </c>
+      <c r="M96">
+        <v>3.4767123287671233</v>
+      </c>
+      <c r="N96" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B97" t="str">
+        <v>VT00194</v>
+      </c>
+      <c r="C97" t="str">
+        <v>Violante</v>
+      </c>
+      <c r="D97" t="str">
+        <v>Courtonne</v>
+      </c>
+      <c r="E97" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F97" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="G97">
+        <v>49625.64</v>
+      </c>
+      <c r="H97" t="str">
+        <v>Under 50k</v>
+      </c>
+      <c r="I97" s="6">
+        <v>44384</v>
+      </c>
+      <c r="J97">
+        <v>0.5</v>
+      </c>
+      <c r="K97" t="str">
+        <v>Fixed Term</v>
+      </c>
+      <c r="L97" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M97">
+        <v>2.9589041095890409</v>
+      </c>
+      <c r="N97" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B98" t="str">
+        <v>VT00534</v>
+      </c>
+      <c r="C98" t="str">
+        <v>Roselle</v>
+      </c>
+      <c r="D98" t="str">
+        <v>Wandrach</v>
+      </c>
+      <c r="E98" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F98" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="G98">
+        <v>91314.75</v>
+      </c>
+      <c r="H98" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I98" s="6">
+        <v>43931</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98" t="str">
+        <v>Fixed Term</v>
+      </c>
+      <c r="L98" t="str">
+        <v>Seattle, USA</v>
+      </c>
+      <c r="M98">
+        <v>4.2</v>
+      </c>
+      <c r="N98" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B99" t="str">
+        <v>VT00578</v>
+      </c>
+      <c r="C99" t="str">
+        <v>Magnum</v>
+      </c>
+      <c r="D99" t="str">
+        <v>Locksley</v>
+      </c>
+      <c r="E99" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F99" t="str">
+        <v>Services</v>
+      </c>
+      <c r="G99">
+        <v>42314.39</v>
+      </c>
+      <c r="H99" t="str">
+        <v>Under 50k</v>
+      </c>
+      <c r="I99" s="6">
+        <v>44487</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99" t="str">
+        <v>Fixed Term</v>
+      </c>
+      <c r="L99" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M99">
+        <v>2.6767123287671235</v>
+      </c>
+      <c r="N99" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B100" t="str">
+        <v>VT00596</v>
+      </c>
+      <c r="C100" t="str">
+        <v>Letisha</v>
+      </c>
+      <c r="D100" t="str">
+        <v>Carrett</v>
+      </c>
+      <c r="E100" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F100" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="G100">
+        <v>84598.88</v>
+      </c>
+      <c r="H100" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I100" s="6">
+        <v>44116</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100" t="str">
+        <v>Fixed Term</v>
+      </c>
+      <c r="L100" t="str">
+        <v>Seattle, USA</v>
+      </c>
+      <c r="M100">
+        <v>3.6931506849315068</v>
+      </c>
+      <c r="N100" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B101" t="str">
+        <v>VT00596</v>
+      </c>
+      <c r="C101" t="str">
+        <v>Letisha</v>
+      </c>
+      <c r="D101" t="str">
+        <v>Carrett</v>
+      </c>
+      <c r="E101" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F101" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="G101">
+        <v>84598.88</v>
+      </c>
+      <c r="H101" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I101" s="6">
+        <v>44116</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101" t="str">
+        <v>Fixed Term</v>
+      </c>
+      <c r="L101" t="str">
+        <v>Seattle, USA</v>
+      </c>
+      <c r="M101">
+        <v>3.6931506849315068</v>
+      </c>
+      <c r="N101" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B102" t="str">
+        <v>VT00740</v>
+      </c>
+      <c r="C102" t="str">
+        <v>Chitrasen</v>
+      </c>
+      <c r="D102" t="str">
+        <v>Laul</v>
+      </c>
+      <c r="E102" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F102" t="str">
+        <v>Research and Development</v>
+      </c>
+      <c r="G102">
+        <v>46751.7</v>
+      </c>
+      <c r="H102" t="str">
+        <v>Under 50k</v>
+      </c>
+      <c r="I102" s="6">
+        <v>43843</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102" t="str">
+        <v>Fixed Term</v>
+      </c>
+      <c r="L102" t="str">
+        <v>Hyderabad, India</v>
+      </c>
+      <c r="M102">
+        <v>4.441095890410959</v>
+      </c>
+      <c r="N102" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B103" t="str">
+        <v>VT01246</v>
+      </c>
+      <c r="C103" t="str">
+        <v>Zach</v>
+      </c>
+      <c r="D103" t="str">
+        <v>Polon</v>
+      </c>
+      <c r="E103" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F103" t="str">
+        <v>Marketing</v>
+      </c>
+      <c r="G103">
+        <v>53535.62</v>
+      </c>
+      <c r="H103" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I103" s="6">
+        <v>44110</v>
+      </c>
+      <c r="J103">
+        <v>0.5</v>
+      </c>
+      <c r="K103" t="str">
+        <v>Fixed Term</v>
+      </c>
+      <c r="L103" t="str">
+        <v>Seattle, USA</v>
+      </c>
+      <c r="M103">
+        <v>3.7095890410958905</v>
+      </c>
+      <c r="N103" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B104" t="str">
+        <v>VT01249</v>
+      </c>
+      <c r="C104" t="str">
+        <v>Brendan</v>
+      </c>
+      <c r="D104" t="str">
+        <v>Edgeller</v>
+      </c>
+      <c r="E104" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F104" t="str">
+        <v>Legal</v>
+      </c>
+      <c r="G104">
+        <v>31042.51</v>
+      </c>
+      <c r="H104" t="str">
+        <v>Under 50k</v>
+      </c>
+      <c r="I104" s="6">
+        <v>44473</v>
+      </c>
+      <c r="J104">
+        <v>0.3</v>
+      </c>
+      <c r="K104" t="str">
+        <v>Fixed Term</v>
+      </c>
+      <c r="L104" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M104">
+        <v>2.7150684931506848</v>
+      </c>
+      <c r="N104" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B105" t="str">
+        <v>VT01523</v>
+      </c>
+      <c r="C105" t="str">
+        <v>Charmane</v>
+      </c>
+      <c r="D105" t="str">
+        <v>Heistermann</v>
+      </c>
+      <c r="E105" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F105" t="str">
+        <v>Business Development</v>
+      </c>
+      <c r="G105">
+        <v>86558.58</v>
+      </c>
+      <c r="H105" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I105" s="6">
+        <v>43887</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105" t="str">
+        <v>Fixed Term</v>
+      </c>
+      <c r="L105" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M105">
+        <v>4.3205479452054796</v>
+      </c>
+      <c r="N105" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B106" t="str">
+        <v>VT01762</v>
+      </c>
+      <c r="C106" t="str">
+        <v>Geena</v>
+      </c>
+      <c r="D106" t="str">
+        <v>Raghavanpillai</v>
+      </c>
+      <c r="E106" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F106" t="str">
+        <v>Accounting</v>
+      </c>
+      <c r="G106">
+        <v>102515.81</v>
+      </c>
+      <c r="H106" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I106" s="6">
+        <v>43902</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106" t="str">
+        <v>Fixed Term</v>
+      </c>
+      <c r="L106" t="str">
+        <v>Chennai, India</v>
+      </c>
+      <c r="M106">
+        <v>4.279452054794521</v>
+      </c>
+      <c r="N106" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B107" t="str">
+        <v>VT02118</v>
+      </c>
+      <c r="C107" t="str">
+        <v>Oorjit</v>
+      </c>
+      <c r="D107" t="str">
+        <v>Nandanavanam</v>
+      </c>
+      <c r="E107" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F107" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="G107">
+        <v>51165.37</v>
+      </c>
+      <c r="H107" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I107" s="6">
+        <v>44237</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107" t="str">
+        <v>Fixed Term</v>
+      </c>
+      <c r="L107" t="str">
+        <v>Hyderabad, India</v>
+      </c>
+      <c r="M107">
+        <v>3.3616438356164382</v>
+      </c>
+      <c r="N107" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B108" t="str">
+        <v>VT02260</v>
+      </c>
+      <c r="C108" t="str">
+        <v>Rhiamon</v>
+      </c>
+      <c r="D108" t="str">
+        <v>Mollison</v>
+      </c>
+      <c r="E108" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F108" t="str">
+        <v>Research and Development</v>
+      </c>
+      <c r="G108">
+        <v>59434.18</v>
+      </c>
+      <c r="H108" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I108" s="6">
+        <v>43931</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="L108" t="str">
+        <v>Seattle, USA</v>
+      </c>
+      <c r="M108">
+        <v>4.2</v>
+      </c>
+      <c r="N108" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B109" t="str">
+        <v>VT02663</v>
+      </c>
+      <c r="C109" t="str">
+        <v>Sravanthi</v>
+      </c>
+      <c r="D109" t="str">
+        <v>Chalaki</v>
+      </c>
+      <c r="E109" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F109" t="str">
+        <v>Legal</v>
+      </c>
+      <c r="G109">
+        <v>28481.16</v>
+      </c>
+      <c r="H109" t="str">
+        <v>Under 50k</v>
+      </c>
+      <c r="I109" s="6">
+        <v>44228</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="L109" t="str">
+        <v>Chennai, India</v>
+      </c>
+      <c r="M109">
+        <v>3.3863013698630136</v>
+      </c>
+      <c r="N109" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B110" t="str">
+        <v>VT02801</v>
+      </c>
+      <c r="C110" t="str">
+        <v>Shellysheldon</v>
+      </c>
+      <c r="D110" t="str">
+        <v>Mahady</v>
+      </c>
+      <c r="E110" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F110" t="str">
+        <v>Training</v>
+      </c>
+      <c r="G110">
+        <v>114691.03</v>
+      </c>
+      <c r="H110" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I110" s="6">
+        <v>44039</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="L110" t="str">
+        <v>Wellington, New Zealand</v>
+      </c>
+      <c r="M110">
+        <v>3.904109589041096</v>
+      </c>
+      <c r="N110" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B111" t="str">
+        <v>VT03298</v>
+      </c>
+      <c r="C111" t="str">
+        <v>Nonah</v>
+      </c>
+      <c r="D111" t="str">
+        <v>Bissell</v>
+      </c>
+      <c r="E111" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F111" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="G111">
+        <v>82239.53</v>
+      </c>
+      <c r="H111" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I111" s="6">
+        <v>43846</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="L111" t="str">
+        <v>Columbus, USA</v>
+      </c>
+      <c r="M111">
+        <v>4.4328767123287669</v>
+      </c>
+      <c r="N111" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B112" t="str">
+        <v>VT03421</v>
+      </c>
+      <c r="C112" t="str">
+        <v>Alic</v>
+      </c>
+      <c r="D112" t="str">
+        <v>Bagg</v>
+      </c>
+      <c r="E112" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F112" t="str">
+        <v>Legal</v>
+      </c>
+      <c r="G112">
+        <v>113747.56</v>
+      </c>
+      <c r="H112" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I112" s="6">
+        <v>44270</v>
+      </c>
+      <c r="J112">
+        <v>0.7</v>
+      </c>
+      <c r="K112" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="L112" t="str">
+        <v>Columbus, USA</v>
+      </c>
+      <c r="M112">
+        <v>3.2712328767123289</v>
+      </c>
+      <c r="N112" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B113" t="str">
+        <v>VT03421</v>
+      </c>
+      <c r="C113" t="str">
+        <v>Alic</v>
+      </c>
+      <c r="D113" t="str">
+        <v>Bagg</v>
+      </c>
+      <c r="E113" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F113" t="str">
+        <v>Legal</v>
+      </c>
+      <c r="G113">
+        <v>113747.56</v>
+      </c>
+      <c r="H113" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I113" s="6">
+        <v>44270</v>
+      </c>
+      <c r="J113">
+        <v>0.7</v>
+      </c>
+      <c r="K113" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="L113" t="str">
+        <v>Columbus, USA</v>
+      </c>
+      <c r="M113">
+        <v>3.2712328767123289</v>
+      </c>
+      <c r="N113" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B114" t="str">
+        <v>VT03500</v>
+      </c>
+      <c r="C114" t="str">
+        <v>Shiuli</v>
+      </c>
+      <c r="D114" t="str">
+        <v>Sapna</v>
+      </c>
+      <c r="E114" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F114" t="str">
+        <v>Support</v>
+      </c>
+      <c r="G114">
+        <v>37062.1</v>
+      </c>
+      <c r="H114" t="str">
+        <v>Under 50k</v>
+      </c>
+      <c r="I114" s="6">
+        <v>44357</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="K114" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="L114" t="str">
+        <v>Chennai, India</v>
+      </c>
+      <c r="M114">
+        <v>3.032876712328767</v>
+      </c>
+      <c r="N114" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B115" t="str">
+        <v>VT03537</v>
+      </c>
+      <c r="C115" t="str">
+        <v>Renaldo</v>
+      </c>
+      <c r="D115" t="str">
+        <v>Thomassin</v>
+      </c>
+      <c r="E115" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F115" t="str">
+        <v>Business Development</v>
+      </c>
+      <c r="G115">
+        <v>73360.38</v>
+      </c>
+      <c r="H115" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I115" s="6">
+        <v>43972</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="K115" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="L115" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M115">
+        <v>4.087671232876712</v>
+      </c>
+      <c r="N115" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B116" t="str">
+        <v>VT03537</v>
+      </c>
+      <c r="C116" t="str">
+        <v>Renaldo</v>
+      </c>
+      <c r="D116" t="str">
+        <v>Thomassin</v>
+      </c>
+      <c r="E116" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F116" t="str">
+        <v>Business Development</v>
+      </c>
+      <c r="G116">
+        <v>73360.38</v>
+      </c>
+      <c r="H116" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I116" s="6">
+        <v>43972</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="L116" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M116">
+        <v>4.087671232876712</v>
+      </c>
+      <c r="N116" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B117" t="str">
+        <v>VT03552</v>
+      </c>
+      <c r="C117" t="str">
+        <v>Kamalakshi</v>
+      </c>
+      <c r="D117" t="str">
+        <v>Mukundan</v>
+      </c>
+      <c r="E117" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F117" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="G117">
+        <v>36536.26</v>
+      </c>
+      <c r="H117" t="str">
+        <v>Under 50k</v>
+      </c>
+      <c r="I117" s="6">
+        <v>44358</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="L117" t="str">
+        <v>Hyderabad, India</v>
+      </c>
+      <c r="M117">
+        <v>3.0301369863013701</v>
+      </c>
+      <c r="N117" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B118" t="str">
+        <v>VT03704</v>
+      </c>
+      <c r="C118" t="str">
+        <v>Egor</v>
+      </c>
+      <c r="D118" t="str">
+        <v>Minto</v>
+      </c>
+      <c r="E118" t="str">
+        <v>Need to check</v>
+      </c>
+      <c r="F118" t="str">
+        <v>Legal</v>
+      </c>
+      <c r="G118">
+        <v>63447.07</v>
+      </c>
+      <c r="H118" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I118" s="6">
+        <v>44148</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="L118" t="str">
+        <v>Wellington, New Zealand</v>
+      </c>
+      <c r="M118">
+        <v>3.6054794520547944</v>
+      </c>
+      <c r="N118" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B119" t="str">
+        <v>VT03771</v>
+      </c>
+      <c r="C119" t="str">
+        <v>Marjie</v>
+      </c>
+      <c r="D119" t="str">
+        <v>Bamford</v>
+      </c>
+      <c r="E119" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F119" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="G119">
+        <v>80772.92</v>
+      </c>
+      <c r="H119" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I119" s="6">
+        <v>44137</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="L119" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M119">
+        <v>3.6356164383561644</v>
+      </c>
+      <c r="N119" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B120" t="str">
+        <v>VT03993</v>
+      </c>
+      <c r="C120" t="str">
+        <v>Dulce</v>
+      </c>
+      <c r="D120" t="str">
+        <v>Colbeck</v>
+      </c>
+      <c r="E120" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F120" t="str">
+        <v>Human Resources</v>
+      </c>
+      <c r="G120">
+        <v>83396.5</v>
+      </c>
+      <c r="H120" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I120" s="6">
+        <v>44285</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="L120" t="str">
+        <v>Auckland, New Zealand</v>
+      </c>
+      <c r="M120">
+        <v>3.2301369863013698</v>
+      </c>
+      <c r="N120" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B121" t="str">
+        <v>VT04028</v>
+      </c>
+      <c r="C121" t="str">
+        <v>Michale</v>
+      </c>
+      <c r="D121" t="str">
+        <v>Rolf</v>
+      </c>
+      <c r="E121" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F121" t="str">
+        <v>Services</v>
+      </c>
+      <c r="G121">
+        <v>111815.49</v>
+      </c>
+      <c r="H121" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I121" s="6">
+        <v>43895</v>
+      </c>
+      <c r="J121">
+        <v>0.7</v>
+      </c>
+      <c r="K121" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="L121" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M121">
+        <v>4.2986301369863016</v>
+      </c>
+      <c r="N121" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B122" t="str">
+        <v>VT04028</v>
+      </c>
+      <c r="C122" t="str">
+        <v>Michale</v>
+      </c>
+      <c r="D122" t="str">
+        <v>Rolf</v>
+      </c>
+      <c r="E122" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F122" t="str">
+        <v>Services</v>
+      </c>
+      <c r="G122">
+        <v>111815.49</v>
+      </c>
+      <c r="H122" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I122" s="6">
+        <v>43895</v>
+      </c>
+      <c r="J122">
+        <v>0.7</v>
+      </c>
+      <c r="K122" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="L122" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M122">
+        <v>4.2986301369863016</v>
+      </c>
+      <c r="N122" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B123" t="str">
+        <v>VT04093</v>
+      </c>
+      <c r="C123" t="str">
+        <v>Prasanna</v>
+      </c>
+      <c r="D123" t="str">
+        <v>Lakshmi</v>
+      </c>
+      <c r="E123" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F123" t="str">
+        <v>Training</v>
+      </c>
+      <c r="G123">
+        <v>116767.63</v>
+      </c>
+      <c r="H123" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I123" s="6">
+        <v>43949</v>
+      </c>
+      <c r="J123">
+        <v>0.4</v>
+      </c>
+      <c r="K123" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="L123" t="str">
+        <v>Chennai, India</v>
+      </c>
+      <c r="M123">
+        <v>4.1506849315068495</v>
+      </c>
+      <c r="N123" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B124" t="str">
+        <v>VT04093</v>
+      </c>
+      <c r="C124" t="str">
+        <v>Baruna</v>
+      </c>
+      <c r="D124" t="str">
+        <v>Ogale</v>
+      </c>
+      <c r="E124" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F124" t="str">
+        <v>Training</v>
+      </c>
+      <c r="G124">
+        <v>116767.63</v>
+      </c>
+      <c r="H124" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I124" s="6">
+        <v>43949</v>
+      </c>
+      <c r="J124">
+        <v>0.4</v>
+      </c>
+      <c r="K124" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="L124" t="str">
+        <v>Chennai, India</v>
+      </c>
+      <c r="M124">
+        <v>4.1506849315068495</v>
+      </c>
+      <c r="N124" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B125" t="str">
+        <v>VT04350</v>
+      </c>
+      <c r="C125" t="str">
+        <v>Kulbhushan</v>
+      </c>
+      <c r="D125" t="str">
+        <v>Moorthy</v>
+      </c>
+      <c r="E125" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F125" t="str">
+        <v>Business Development</v>
+      </c>
+      <c r="G125">
+        <v>106400.02</v>
+      </c>
+      <c r="H125" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I125" s="6">
+        <v>44021</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="L125" t="str">
+        <v>Chennai, India</v>
+      </c>
+      <c r="M125">
+        <v>3.9534246575342467</v>
+      </c>
+      <c r="N125" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B126" t="str">
+        <v>VT04350</v>
+      </c>
+      <c r="C126" t="str">
+        <v>Lalit</v>
+      </c>
+      <c r="D126" t="str">
+        <v>Kothari</v>
+      </c>
+      <c r="E126" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F126" t="str">
+        <v>Business Development</v>
+      </c>
+      <c r="G126">
+        <v>106400.02</v>
+      </c>
+      <c r="H126" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I126" s="6">
+        <v>44021</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="K126" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="L126" t="str">
+        <v>Chennai, India</v>
+      </c>
+      <c r="M126">
+        <v>3.9534246575342467</v>
+      </c>
+      <c r="N126" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B127" t="str">
+        <v>VT04467</v>
+      </c>
+      <c r="C127" t="str">
+        <v>Amal</v>
+      </c>
+      <c r="D127" t="str">
+        <v>Nimesh</v>
+      </c>
+      <c r="E127" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F127" t="str">
+        <v>Marketing</v>
+      </c>
+      <c r="G127">
+        <v>70755.5</v>
+      </c>
+      <c r="H127" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I127" s="6">
+        <v>44090</v>
+      </c>
+      <c r="J127">
+        <v>0.8</v>
+      </c>
+      <c r="K127" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="L127" t="str">
+        <v>Hyderabad, India</v>
+      </c>
+      <c r="M127">
+        <v>3.7643835616438355</v>
+      </c>
+      <c r="N127" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B128" t="str">
+        <v>VT04627</v>
+      </c>
+      <c r="C128" t="str">
+        <v>Yvette</v>
+      </c>
+      <c r="D128" t="str">
+        <v>Bett</v>
+      </c>
+      <c r="E128" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F128" t="str">
+        <v>Human Resources</v>
+      </c>
+      <c r="G128">
+        <v>76320.44</v>
+      </c>
+      <c r="H128" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I128" s="6">
+        <v>44383</v>
+      </c>
+      <c r="J128">
+        <v>0.8</v>
+      </c>
+      <c r="K128" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="L128" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M128">
+        <v>2.9616438356164383</v>
+      </c>
+      <c r="N128" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B129" t="str">
+        <v>VT04984</v>
+      </c>
+      <c r="C129" t="str">
+        <v>Dell</v>
+      </c>
+      <c r="D129" t="str">
+        <v>Molloy</v>
+      </c>
+      <c r="E129" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F129" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="G129">
+        <v>47362.62</v>
+      </c>
+      <c r="H129" t="str">
+        <v>Under 50k</v>
+      </c>
+      <c r="I129" s="6">
+        <v>43973</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="K129" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="L129" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M129">
+        <v>4.0849315068493155</v>
+      </c>
+      <c r="N129" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B132" s="74" t="s">
+        <v>817</v>
+      </c>
+      <c r="C132" s="74"/>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B133" t="str" cm="1">
+        <f t="array" ref="B133:N139">_xlfn._xlws.FILTER(staff[],LEFT(staff[First Name],1)="H")</f>
+        <v>PR00246</v>
+      </c>
+      <c r="C133" t="str">
+        <v>Husein</v>
+      </c>
+      <c r="D133" t="str">
+        <v>Augar</v>
+      </c>
+      <c r="E133" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F133" t="str">
+        <v>Marketing</v>
+      </c>
+      <c r="G133">
+        <v>67905.8</v>
+      </c>
+      <c r="H133" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I133">
+        <v>44194</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+      <c r="K133" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L133" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M133">
+        <v>3.4794520547945207</v>
+      </c>
+      <c r="N133" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B134" t="str">
+        <v>PR00746</v>
+      </c>
+      <c r="C134" t="str">
+        <v>Hogan</v>
+      </c>
+      <c r="D134" t="str">
+        <v>Iles</v>
+      </c>
+      <c r="E134" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F134" t="str">
+        <v>Accounting</v>
+      </c>
+      <c r="G134">
+        <v>114177.23</v>
+      </c>
+      <c r="H134" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="I134">
+        <v>43908</v>
+      </c>
+      <c r="J134">
+        <v>1</v>
+      </c>
+      <c r="K134" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L134" t="str">
+        <v>Wellington, New Zealand</v>
+      </c>
+      <c r="M134">
+        <v>4.2630136986301368</v>
+      </c>
+      <c r="N134" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B135" t="str">
+        <v>SQ04437</v>
+      </c>
+      <c r="C135" t="str">
+        <v>Hephzibah</v>
+      </c>
+      <c r="D135" t="str">
+        <v>Summerell</v>
+      </c>
+      <c r="E135" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F135" t="str">
+        <v>Services</v>
+      </c>
+      <c r="G135">
+        <v>28305.08</v>
+      </c>
+      <c r="H135" t="str">
+        <v>Under 50k</v>
+      </c>
+      <c r="I135">
+        <v>43754</v>
+      </c>
+      <c r="J135">
+        <v>1</v>
+      </c>
+      <c r="K135" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L135" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="M135">
+        <v>4.6849315068493151</v>
+      </c>
+      <c r="N135" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B136" t="str">
+        <v>TN00214</v>
+      </c>
+      <c r="C136" t="str">
+        <v>Hemavati</v>
+      </c>
+      <c r="D136" t="str">
+        <v>Muthiah</v>
+      </c>
+      <c r="E136" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F136" t="str">
+        <v>Training</v>
+      </c>
+      <c r="G136">
+        <v>37902.35</v>
+      </c>
+      <c r="H136" t="str">
+        <v>Under 50k</v>
+      </c>
+      <c r="I136">
+        <v>43823</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="L136" t="str">
+        <v>Chennai, India</v>
+      </c>
+      <c r="M136">
+        <v>4.4958904109589044</v>
+      </c>
+      <c r="N136" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B137" t="str">
+        <v>TN04175</v>
+      </c>
+      <c r="C137" t="str">
+        <v>Hinda</v>
+      </c>
+      <c r="D137" t="str">
+        <v>Label</v>
+      </c>
+      <c r="E137" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F137" t="str">
+        <v>Human Resources</v>
+      </c>
+      <c r="G137">
+        <v>92704.48</v>
+      </c>
+      <c r="H137" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I137">
+        <v>43430</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137" t="str">
+        <v>Fixed Term</v>
+      </c>
+      <c r="L137" t="str">
+        <v>Columbus, USA</v>
+      </c>
+      <c r="M137">
+        <v>5.5726027397260278</v>
+      </c>
+      <c r="N137" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B138" t="str">
+        <v>TN04775</v>
+      </c>
+      <c r="C138" t="str">
+        <v>Hridaynath</v>
+      </c>
+      <c r="D138" t="str">
+        <v>Tendulkar</v>
+      </c>
+      <c r="E138" t="str">
+        <v>Female</v>
+      </c>
+      <c r="F138" t="str">
+        <v>Legal</v>
+      </c>
+      <c r="G138">
+        <v>31089.22</v>
+      </c>
+      <c r="H138" t="str">
+        <v>Under 50k</v>
+      </c>
+      <c r="I138">
+        <v>43776</v>
+      </c>
+      <c r="J138">
+        <v>1</v>
+      </c>
+      <c r="K138" t="str">
+        <v>Fixed Term</v>
+      </c>
+      <c r="L138" t="str">
+        <v>Chennai, India</v>
+      </c>
+      <c r="M138">
+        <v>4.624657534246575</v>
+      </c>
+      <c r="N138" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B139" t="str">
+        <v>VT01996</v>
+      </c>
+      <c r="C139" t="str">
+        <v>Hali</v>
+      </c>
+      <c r="D139" t="str">
+        <v>Behnecke</v>
+      </c>
+      <c r="E139" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F139" t="str">
+        <v>Human Resources</v>
+      </c>
+      <c r="G139">
+        <v>65569.36</v>
+      </c>
+      <c r="H139" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="I139">
+        <v>43293</v>
+      </c>
+      <c r="J139">
+        <v>1</v>
+      </c>
+      <c r="K139" t="str">
+        <v>Fixed Term</v>
+      </c>
+      <c r="L139" t="str">
+        <v>Auckland, New Zealand</v>
+      </c>
+      <c r="M139">
+        <v>5.9479452054794519</v>
+      </c>
+      <c r="N139" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B142" s="74" t="s">
+        <v>816</v>
+      </c>
+      <c r="C142" s="74"/>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B143" t="str" cm="1">
+        <f t="array" ref="B143:D164">_xlfn._xlws.FILTER(staff[Emp ID]:staff[Last Name],MONTH(staff[Start Date])=3)</f>
+        <v>PR00746</v>
+      </c>
+      <c r="C143" t="str">
+        <v>Hogan</v>
+      </c>
+      <c r="D143" t="str">
+        <v>Iles</v>
+      </c>
+      <c r="I143" s="6"/>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B144" t="str">
+        <v>PR00893</v>
+      </c>
+      <c r="C144" t="str">
+        <v>Vasavi</v>
+      </c>
+      <c r="D144" t="str">
+        <v>Veeravasarapu</v>
+      </c>
+      <c r="I144" s="6"/>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B145" t="str">
+        <v>SQ00022</v>
+      </c>
+      <c r="C145" t="str">
+        <v>Carlin</v>
+      </c>
+      <c r="D145" t="str">
+        <v>Demke</v>
+      </c>
+      <c r="I145" s="6"/>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B146" t="str">
+        <v>SQ00105</v>
+      </c>
+      <c r="C146" t="str">
+        <v>Sarayu</v>
+      </c>
+      <c r="D146" t="str">
+        <v>Ragunathan</v>
+      </c>
+      <c r="I146" s="6"/>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B147" t="str">
+        <v>SQ01519</v>
+      </c>
+      <c r="C147" t="str">
+        <v>Caron</v>
+      </c>
+      <c r="D147" t="str">
+        <v>Kolakovic</v>
+      </c>
+      <c r="I147" s="6"/>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B148" t="str">
+        <v>SQ03112</v>
+      </c>
+      <c r="C148" t="str">
+        <v>Kantimoy</v>
+      </c>
+      <c r="D148" t="str">
+        <v>Pritish</v>
+      </c>
+      <c r="I148" s="6"/>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B149" t="str">
+        <v>SQ03625</v>
+      </c>
+      <c r="C149" t="str">
+        <v>Fidela</v>
+      </c>
+      <c r="D149" t="str">
+        <v>Artis</v>
+      </c>
+      <c r="I149" s="6"/>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B150" t="str">
+        <v>SQ04612</v>
+      </c>
+      <c r="C150" t="str">
+        <v>Mick</v>
+      </c>
+      <c r="D150" t="str">
+        <v>Spraberry</v>
+      </c>
+      <c r="I150" s="6"/>
+    </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B151" t="str">
+        <v>TN01256</v>
+      </c>
+      <c r="C151" t="str">
+        <v>Shattesh</v>
+      </c>
+      <c r="D151" t="str">
+        <v>Utpat</v>
+      </c>
+      <c r="I151" s="6"/>
+    </row>
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B152" t="str">
+        <v>TN01256</v>
+      </c>
+      <c r="C152" t="str">
+        <v>Sawini</v>
+      </c>
+      <c r="D152" t="str">
+        <v>Chandan</v>
+      </c>
+      <c r="I152" s="6"/>
+    </row>
+    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B153" t="str">
+        <v>TN01601</v>
+      </c>
+      <c r="C153" t="str">
+        <v>Melva</v>
+      </c>
+      <c r="D153" t="str">
+        <v>Jickells</v>
+      </c>
+      <c r="I153" s="6"/>
+    </row>
+    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B154" t="str">
+        <v>TN01601</v>
+      </c>
+      <c r="C154" t="str">
+        <v>Melva</v>
+      </c>
+      <c r="D154" t="str">
+        <v>Jickells</v>
+      </c>
+      <c r="I154" s="6"/>
+    </row>
+    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B155" t="str">
+        <v>TN04892</v>
+      </c>
+      <c r="C155" t="str">
+        <v>Luca</v>
+      </c>
+      <c r="D155" t="str">
+        <v>Wolstenholme</v>
+      </c>
+      <c r="I155" s="6"/>
+    </row>
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B156" t="str">
+        <v>VT01762</v>
+      </c>
+      <c r="C156" t="str">
+        <v>Geena</v>
+      </c>
+      <c r="D156" t="str">
+        <v>Raghavanpillai</v>
+      </c>
+      <c r="I156" s="6"/>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B157" t="str">
+        <v>VT01803</v>
+      </c>
+      <c r="C157" t="str">
+        <v>Freddy</v>
+      </c>
+      <c r="D157" t="str">
+        <v>Linford</v>
+      </c>
+      <c r="I157" s="6"/>
+    </row>
+    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B158" t="str">
+        <v>VT02417</v>
+      </c>
+      <c r="C158" t="str">
+        <v>Evangelina</v>
+      </c>
+      <c r="D158" t="str">
+        <v>Lergan</v>
+      </c>
+      <c r="I158" s="6"/>
+    </row>
+    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B159" t="str">
+        <v>VT03421</v>
+      </c>
+      <c r="C159" t="str">
+        <v>Alic</v>
+      </c>
+      <c r="D159" t="str">
+        <v>Bagg</v>
+      </c>
+      <c r="I159" s="6"/>
+    </row>
+    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B160" t="str">
+        <v>VT03421</v>
+      </c>
+      <c r="C160" t="str">
+        <v>Alic</v>
+      </c>
+      <c r="D160" t="str">
+        <v>Bagg</v>
+      </c>
+      <c r="I160" s="6"/>
+    </row>
+    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B161" t="str">
+        <v>VT03993</v>
+      </c>
+      <c r="C161" t="str">
+        <v>Dulce</v>
+      </c>
+      <c r="D161" t="str">
+        <v>Colbeck</v>
+      </c>
+      <c r="I161" s="6"/>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B162" t="str">
+        <v>VT04028</v>
+      </c>
+      <c r="C162" t="str">
+        <v>Michale</v>
+      </c>
+      <c r="D162" t="str">
+        <v>Rolf</v>
+      </c>
+      <c r="I162" s="6"/>
+    </row>
+    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B163" t="str">
+        <v>VT04028</v>
+      </c>
+      <c r="C163" t="str">
+        <v>Michale</v>
+      </c>
+      <c r="D163" t="str">
+        <v>Rolf</v>
+      </c>
+      <c r="I163" s="6"/>
+    </row>
+    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B164" t="str">
+        <v>VT04415</v>
+      </c>
+      <c r="C164" t="str">
+        <v>Malory</v>
+      </c>
+      <c r="D164" t="str">
+        <v>Biles</v>
+      </c>
+      <c r="I164" s="6"/>
+    </row>
+    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I165" s="6"/>
+    </row>
+    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I166" s="6"/>
+    </row>
+    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B167" t="s">
+        <v>819</v>
+      </c>
+      <c r="I167" s="6"/>
+    </row>
+    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B168" t="e" cm="1" vm="1">
+        <f t="array" ref="B168">_xlfn._xlws.FILTER(staff[Emp ID]:staff[Last Name],DAY(staff[Start Date])="Monday")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I168" s="6"/>
+    </row>
+    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I169" s="6"/>
+    </row>
+    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I170" s="6"/>
+    </row>
+    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I171" s="6"/>
+    </row>
+    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I172" s="6"/>
+    </row>
+    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I173" s="6"/>
+    </row>
+    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I174" s="6"/>
+    </row>
+    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I175" s="6"/>
+    </row>
+    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I176" s="6"/>
+    </row>
+    <row r="177" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I177" s="6"/>
+    </row>
+    <row r="178" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I178" s="6"/>
+    </row>
+    <row r="179" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I179" s="6"/>
+    </row>
+    <row r="180" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I180" s="6"/>
+    </row>
+    <row r="181" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I181" s="6"/>
+    </row>
+    <row r="182" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I182" s="6"/>
+    </row>
+    <row r="183" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I183" s="6"/>
+    </row>
+    <row r="184" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I184" s="6"/>
+    </row>
+    <row r="185" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I185" s="6"/>
+    </row>
+    <row r="186" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I186" s="6"/>
+    </row>
+    <row r="187" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I187" s="6"/>
+    </row>
+    <row r="188" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I188" s="6"/>
+    </row>
+    <row r="189" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I189" s="6"/>
+    </row>
+    <row r="190" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I190" s="6"/>
+    </row>
+    <row r="191" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I191" s="6"/>
+    </row>
+    <row r="192" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I192" s="6"/>
+    </row>
+    <row r="193" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I193" s="6"/>
+    </row>
+    <row r="194" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I194" s="6"/>
+    </row>
+    <row r="195" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I195" s="6"/>
+    </row>
+    <row r="196" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I196" s="6"/>
+    </row>
+    <row r="197" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I197" s="6"/>
+    </row>
+    <row r="198" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I198" s="6"/>
+    </row>
+    <row r="199" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I199" s="6"/>
+    </row>
+    <row r="200" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I200" s="6"/>
+    </row>
+    <row r="201" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I201" s="6"/>
+    </row>
+    <row r="202" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I202" s="6"/>
+    </row>
+    <row r="203" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I203" s="6"/>
+    </row>
+    <row r="204" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I204" s="6"/>
+    </row>
+    <row r="205" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I205" s="6"/>
+    </row>
+    <row r="206" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I206" s="6"/>
+    </row>
+    <row r="207" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I207" s="6"/>
+    </row>
+    <row r="208" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I208" s="6"/>
+    </row>
+    <row r="209" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I209" s="6"/>
+    </row>
+    <row r="210" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I210" s="6"/>
+    </row>
+    <row r="211" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I211" s="6"/>
+    </row>
+    <row r="212" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I212" s="6"/>
+    </row>
+    <row r="213" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I213" s="6"/>
+    </row>
+    <row r="214" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I214" s="6"/>
+    </row>
+    <row r="215" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I215" s="6"/>
+    </row>
+    <row r="216" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I216" s="6"/>
+    </row>
+    <row r="217" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I217" s="6"/>
+    </row>
+    <row r="218" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I218" s="6"/>
+    </row>
+    <row r="219" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I219" s="6"/>
+    </row>
+    <row r="220" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I220" s="6"/>
+    </row>
+    <row r="221" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I221" s="6"/>
+    </row>
+    <row r="222" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I222" s="6"/>
+    </row>
+    <row r="223" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I223" s="6"/>
+    </row>
+    <row r="224" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I224" s="6"/>
+    </row>
+    <row r="225" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I225" s="6"/>
+    </row>
+    <row r="226" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I226" s="6"/>
+    </row>
+    <row r="227" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I227" s="6"/>
+    </row>
+    <row r="228" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I228" s="6"/>
+    </row>
+    <row r="229" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I229" s="6"/>
+    </row>
+    <row r="230" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I230" s="6"/>
+    </row>
+    <row r="231" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I231" s="6"/>
+    </row>
+    <row r="232" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I232" s="6"/>
+    </row>
+    <row r="233" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I233" s="6"/>
+    </row>
+    <row r="234" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I234" s="6"/>
+    </row>
+    <row r="235" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I235" s="6"/>
+    </row>
+    <row r="236" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I236" s="6"/>
+    </row>
+    <row r="237" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I237" s="6"/>
+    </row>
+    <row r="238" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I238" s="6"/>
+    </row>
+    <row r="239" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I239" s="6"/>
+    </row>
+    <row r="240" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I240" s="6"/>
+    </row>
+    <row r="241" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I241" s="6"/>
+    </row>
+    <row r="242" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I242" s="6"/>
+    </row>
+    <row r="243" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I243" s="6"/>
+    </row>
+    <row r="244" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I244" s="6"/>
+    </row>
+    <row r="245" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I245" s="6"/>
+    </row>
+    <row r="246" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I246" s="6"/>
+    </row>
+    <row r="247" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I247" s="6"/>
+    </row>
+    <row r="248" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I248" s="6"/>
+    </row>
+    <row r="249" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I249" s="6"/>
+    </row>
+    <row r="250" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I250" s="6"/>
+    </row>
+    <row r="251" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I251" s="6"/>
+    </row>
+    <row r="252" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I252" s="6"/>
+    </row>
+    <row r="253" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I253" s="6"/>
+    </row>
+    <row r="254" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I254" s="6"/>
+    </row>
+    <row r="255" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I255" s="6"/>
+    </row>
+    <row r="256" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I256" s="6"/>
+    </row>
+    <row r="257" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I257" s="6"/>
+    </row>
+    <row r="258" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I258" s="6"/>
+    </row>
+    <row r="259" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I259" s="6"/>
+    </row>
+    <row r="260" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I260" s="6"/>
+    </row>
+    <row r="261" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I261" s="6"/>
+    </row>
+    <row r="262" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I262" s="6"/>
+    </row>
+    <row r="263" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I263" s="6"/>
+    </row>
+    <row r="264" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I264" s="6"/>
+    </row>
+    <row r="265" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I265" s="6"/>
+    </row>
+    <row r="266" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I266" s="6"/>
+    </row>
+    <row r="267" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I267" s="6"/>
+    </row>
+    <row r="268" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I268" s="6"/>
+    </row>
+    <row r="269" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I269" s="6"/>
+    </row>
+    <row r="270" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I270" s="6"/>
+    </row>
+    <row r="271" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I271" s="6"/>
+    </row>
+    <row r="272" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I272" s="6"/>
+    </row>
+    <row r="273" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I273" s="6"/>
+    </row>
+    <row r="274" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I274" s="6"/>
+    </row>
+    <row r="275" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I275" s="6"/>
+    </row>
+    <row r="276" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I276" s="6"/>
+    </row>
+    <row r="277" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I277" s="6"/>
+    </row>
+    <row r="278" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I278" s="6"/>
+    </row>
+    <row r="279" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I279" s="6"/>
+    </row>
+    <row r="280" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I280" s="6"/>
+    </row>
+    <row r="281" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I281" s="6"/>
+    </row>
+    <row r="282" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I282" s="6"/>
+    </row>
+    <row r="283" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I283" s="6"/>
+    </row>
+    <row r="284" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I284" s="6"/>
+    </row>
+    <row r="285" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I285" s="6"/>
+    </row>
+    <row r="286" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I286" s="6"/>
+    </row>
+    <row r="287" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I287" s="6"/>
+    </row>
+    <row r="288" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I288" s="6"/>
+    </row>
+    <row r="289" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I289" s="6"/>
+    </row>
+    <row r="290" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I290" s="6"/>
+    </row>
+    <row r="291" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I291" s="6"/>
+    </row>
+    <row r="292" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I292" s="6"/>
+    </row>
+    <row r="293" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I293" s="6"/>
+    </row>
+    <row r="294" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I294" s="6"/>
+    </row>
+    <row r="295" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I295" s="6"/>
+    </row>
+    <row r="296" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I296" s="6"/>
+    </row>
+    <row r="297" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I297" s="6"/>
+    </row>
+    <row r="298" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I298" s="6"/>
+    </row>
+    <row r="299" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I299" s="6"/>
+    </row>
+    <row r="300" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I300" s="6"/>
+    </row>
+    <row r="301" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I301" s="6"/>
+    </row>
+    <row r="302" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I302" s="6"/>
+    </row>
+    <row r="303" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I303" s="6"/>
+    </row>
+    <row r="304" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I304" s="6"/>
+    </row>
+    <row r="305" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I305" s="6"/>
+    </row>
+    <row r="306" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I306" s="6"/>
+    </row>
+    <row r="307" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I307" s="6"/>
+    </row>
+    <row r="308" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I308" s="6"/>
+    </row>
+    <row r="309" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I309" s="6"/>
+    </row>
+    <row r="310" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I310" s="6"/>
+    </row>
+    <row r="311" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I311" s="6"/>
+    </row>
+    <row r="312" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I312" s="6"/>
+    </row>
+    <row r="313" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I313" s="6"/>
+    </row>
+    <row r="314" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I314" s="6"/>
+    </row>
+    <row r="315" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I315" s="6"/>
+    </row>
+    <row r="316" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I316" s="6"/>
+    </row>
+    <row r="317" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I317" s="6"/>
+    </row>
+    <row r="318" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I318" s="6"/>
+    </row>
+    <row r="319" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I319" s="6"/>
+    </row>
+    <row r="320" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I320" s="6"/>
+    </row>
+    <row r="321" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I321" s="6"/>
+    </row>
+    <row r="322" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I322" s="6"/>
+    </row>
+    <row r="323" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I323" s="6"/>
+    </row>
+    <row r="324" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I324" s="6"/>
+    </row>
+    <row r="325" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I325" s="6"/>
+    </row>
+    <row r="326" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I326" s="6"/>
+    </row>
+    <row r="327" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I327" s="6"/>
+    </row>
+    <row r="328" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I328" s="6"/>
+    </row>
+    <row r="329" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I329" s="6"/>
+    </row>
+    <row r="330" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I330" s="6"/>
+    </row>
+    <row r="331" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I331" s="6"/>
+    </row>
+    <row r="332" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I332" s="6"/>
+    </row>
+    <row r="333" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I333" s="6"/>
+    </row>
+    <row r="334" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I334" s="6"/>
+    </row>
+    <row r="335" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I335" s="6"/>
+    </row>
+    <row r="336" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I336" s="6"/>
+    </row>
+    <row r="337" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I337" s="6"/>
+    </row>
+    <row r="338" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I338" s="6"/>
+    </row>
+    <row r="339" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I339" s="6"/>
+    </row>
+    <row r="340" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I340" s="6"/>
+    </row>
+    <row r="341" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I341" s="6"/>
+    </row>
+    <row r="342" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I342" s="6"/>
+    </row>
+    <row r="343" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I343" s="6"/>
+    </row>
+    <row r="344" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I344" s="6"/>
+    </row>
+    <row r="345" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I345" s="6"/>
+    </row>
+    <row r="346" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I346" s="6"/>
+    </row>
+    <row r="347" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I347" s="6"/>
+    </row>
+    <row r="348" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I348" s="6"/>
+    </row>
+    <row r="349" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I349" s="6"/>
+    </row>
+    <row r="350" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I350" s="6"/>
+    </row>
+    <row r="351" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I351" s="6"/>
+    </row>
+    <row r="352" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I352" s="6"/>
+    </row>
+    <row r="353" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I353" s="6"/>
+    </row>
+    <row r="354" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I354" s="6"/>
+    </row>
+    <row r="355" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I355" s="6"/>
+    </row>
+    <row r="356" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I356" s="6"/>
+    </row>
+    <row r="357" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I357" s="6"/>
+    </row>
+    <row r="358" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I358" s="6"/>
+    </row>
+    <row r="359" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I359" s="6"/>
+    </row>
+    <row r="360" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I360" s="6"/>
+    </row>
+    <row r="361" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I361" s="6"/>
+    </row>
+    <row r="362" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I362" s="6"/>
+    </row>
+    <row r="363" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I363" s="6"/>
+    </row>
+    <row r="364" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I364" s="6"/>
+    </row>
+    <row r="365" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I365" s="6"/>
+    </row>
+    <row r="366" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I366" s="6"/>
+    </row>
+    <row r="367" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I367" s="6"/>
+    </row>
+    <row r="368" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I368" s="6"/>
+    </row>
+    <row r="369" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I369" s="6"/>
+    </row>
+    <row r="370" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I370" s="6"/>
+    </row>
+    <row r="371" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I371" s="6"/>
+    </row>
+    <row r="372" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I372" s="6"/>
+    </row>
+    <row r="373" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I373" s="6"/>
+    </row>
+    <row r="374" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I374" s="6"/>
+    </row>
+    <row r="375" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I375" s="6"/>
+    </row>
+    <row r="376" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I376" s="6"/>
+    </row>
+    <row r="377" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I377" s="6"/>
+    </row>
+    <row r="378" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I378" s="6"/>
+    </row>
+    <row r="379" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I379" s="6"/>
+    </row>
+    <row r="380" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I380" s="6"/>
+    </row>
+    <row r="381" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I381" s="6"/>
+    </row>
+    <row r="382" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I382" s="6"/>
+    </row>
+    <row r="383" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I383" s="6"/>
+    </row>
+    <row r="384" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I384" s="6"/>
+    </row>
+    <row r="385" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I385" s="6"/>
+    </row>
+    <row r="386" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I386" s="6"/>
+    </row>
+    <row r="387" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I387" s="6"/>
+    </row>
+    <row r="388" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I388" s="6"/>
+    </row>
+    <row r="389" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I389" s="6"/>
+    </row>
+    <row r="390" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I390" s="6"/>
+    </row>
+    <row r="391" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I391" s="6"/>
+    </row>
+    <row r="392" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I392" s="6"/>
+    </row>
+    <row r="393" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I393" s="6"/>
+    </row>
+    <row r="394" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I394" s="6"/>
+    </row>
+    <row r="395" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I395" s="6"/>
+    </row>
+    <row r="396" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I396" s="6"/>
+    </row>
+    <row r="397" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I397" s="6"/>
+    </row>
+    <row r="398" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I398" s="6"/>
+    </row>
+    <row r="399" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I399" s="6"/>
+    </row>
+    <row r="400" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I400" s="6"/>
+    </row>
+    <row r="401" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I401" s="6"/>
+    </row>
+    <row r="402" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I402" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B142:C142"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/StaffDataInsights.xlsx
+++ b/StaffDataInsights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sultan\Documents\GitHub\Excel-Datasets-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37385BA8-B2CB-4E9F-A446-81BE8037F783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD00D851-4FA5-43E4-B405-C9976E5BFA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="8" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Concepts" sheetId="2" r:id="rId1"/>
@@ -2692,9 +2692,6 @@
     <t>Entire data</t>
   </si>
   <si>
-    <t>in column</t>
-  </si>
-  <si>
     <t>All emp with 120000 salary</t>
   </si>
   <si>
@@ -2738,6 +2735,9 @@
   </si>
   <si>
     <t>Female Ratio</t>
+  </si>
+  <si>
+    <t>In column</t>
   </si>
 </sst>
 </file>
@@ -3118,7 +3118,7 @@
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -3279,6 +3279,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3289,11 +3292,6 @@
     <xf numFmtId="0" fontId="10" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -16317,7 +16315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70636FF-F6B1-4F65-87B4-6E77157F05B1}">
   <dimension ref="B2:N105"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScale="101" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A73" zoomScale="101" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E111" sqref="E110:E111"/>
     </sheetView>
   </sheetViews>
@@ -19568,7 +19566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C1416C-219B-4C61-AF15-816AE14BC08D}">
   <dimension ref="B3:L20"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -19600,11 +19598,11 @@
       </c>
     </row>
     <row r="4" spans="2:12" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="111" t="s">
         <v>778</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
       <c r="E4" s="43">
         <f>MIN(staff[Salary])</f>
         <v>28160.79</v>
@@ -19623,11 +19621,11 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="111" t="s">
         <v>779</v>
       </c>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
       <c r="E5" s="43">
         <f>MAX(staff[Salary])</f>
         <v>120000</v>
@@ -19646,11 +19644,11 @@
       </c>
     </row>
     <row r="6" spans="2:12" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="111" t="s">
         <v>780</v>
       </c>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
       <c r="E6" s="43" cm="1">
         <f t="array" ref="E6:E10">LARGE(staff[Salary],I6:I10)</f>
         <v>120000</v>
@@ -19744,11 +19742,11 @@
       </c>
     </row>
     <row r="14" spans="2:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="B14" s="108" t="s">
+      <c r="B14" s="111" t="s">
         <v>783</v>
       </c>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="111"/>
       <c r="E14" s="43" cm="1">
         <f t="array" ref="E14:E20">LARGE(staff[Salary], _xlfn.SEQUENCE(J8))</f>
         <v>120000</v>
@@ -19813,8 +19811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A95CC7B-A698-45E1-AF5B-2327603E129D}">
   <dimension ref="B3:O22"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19939,15 +19937,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B826DB7-AA87-4535-804C-6B76CD582ABC}">
   <dimension ref="A4:R80"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
     <col min="6" max="6" width="17.77734375" customWidth="1"/>
     <col min="7" max="7" width="20.6640625" customWidth="1"/>
     <col min="9" max="9" width="8.88671875" customWidth="1"/>
@@ -20114,7 +20112,7 @@
         <v>#N/A</v>
       </c>
       <c r="F17" s="52" t="s">
-        <v>810</v>
+        <v>825</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="18" x14ac:dyDescent="0.35">
@@ -20646,7 +20644,7 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
@@ -20755,14 +20753,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="111" t="s">
-        <v>812</v>
-      </c>
-      <c r="C3" s="111"/>
+      <c r="B3" s="114" t="s">
+        <v>811</v>
+      </c>
+      <c r="C3" s="114"/>
     </row>
     <row r="5" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="71" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C5" s="70" t="str" cm="1">
         <f t="array" ref="C5">_xlfn.XLOOKUP(MAX(staff[Salary]),staff[Salary],staff[First Name]&amp;" "&amp;staff[Last Name])</f>
@@ -20771,7 +20769,7 @@
     </row>
     <row r="9" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="71" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C9" s="70" t="str" cm="1">
         <f t="array" ref="C9:C10">_xlfn._xlws.FILTER(staff[First Name]&amp;" "&amp;staff[Last Name],staff[Salary]=120000)</f>
@@ -20785,7 +20783,7 @@
     </row>
     <row r="12" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="71" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C12" s="70" t="str" cm="1">
         <f t="array" ref="C12">_xlfn.TEXTJOIN(" , ",,_xlfn._xlws.FILTER(staff[First Name]&amp;" "&amp;staff[Last Name],staff[Salary]=120000))</f>
@@ -20794,11 +20792,11 @@
       <c r="D12" s="70"/>
     </row>
     <row r="15" spans="2:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="B15" s="109" t="s">
-        <v>818</v>
-      </c>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
+      <c r="B15" s="112" t="s">
+        <v>817</v>
+      </c>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" t="str" cm="1">
@@ -25476,10 +25474,10 @@
       </c>
     </row>
     <row r="132" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B132" s="110" t="s">
-        <v>817</v>
-      </c>
-      <c r="C132" s="110"/>
+      <c r="B132" s="113" t="s">
+        <v>816</v>
+      </c>
+      <c r="C132" s="113"/>
     </row>
     <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" t="str" cm="1">
@@ -25770,10 +25768,10 @@
       </c>
     </row>
     <row r="142" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B142" s="110" t="s">
-        <v>816</v>
-      </c>
-      <c r="C142" s="110"/>
+      <c r="B142" s="113" t="s">
+        <v>815</v>
+      </c>
+      <c r="C142" s="113"/>
     </row>
     <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" t="str" cm="1">
@@ -26048,7 +26046,7 @@
     </row>
     <row r="167" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B167" s="49" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C167" s="49"/>
       <c r="D167" s="49"/>
@@ -26181,7 +26179,7 @@
         <v>Full time</v>
       </c>
       <c r="Q171" s="72" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="R171" s="72"/>
       <c r="S171" s="72"/>
@@ -29136,8 +29134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB2FA2C-8D49-4E03-9F0A-C46BA338673C}">
   <dimension ref="B1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29162,12 +29160,12 @@
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="55" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C4" s="55"/>
       <c r="D4" s="55">
@@ -29198,18 +29196,18 @@
       <c r="E6" s="90" t="s">
         <v>770</v>
       </c>
-      <c r="F6" s="113" t="s">
-        <v>822</v>
-      </c>
-      <c r="G6" s="113"/>
+      <c r="F6" s="116" t="s">
+        <v>821</v>
+      </c>
+      <c r="G6" s="116"/>
       <c r="H6" s="90" t="s">
         <v>779</v>
       </c>
-      <c r="I6" s="117" t="s">
+      <c r="I6" s="109" t="s">
+        <v>823</v>
+      </c>
+      <c r="J6" s="109" t="s">
         <v>824</v>
-      </c>
-      <c r="J6" s="117" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="18" x14ac:dyDescent="0.35">
@@ -29242,7 +29240,7 @@
         <f t="array" ref="I7">MEDIAN(_xlfn._xlws.FILTER(staff[Salary], staff[Department]=B7))</f>
         <v>69025.614999999991</v>
       </c>
-      <c r="J7" s="118">
+      <c r="J7" s="110">
         <f>COUNTIF(staff[Gender], "Female") / COUNTA(staff[Gender])</f>
         <v>0.48076923076923078</v>
       </c>
@@ -29268,7 +29266,7 @@
         <v>110042.37</v>
       </c>
       <c r="I8" s="102"/>
-      <c r="J8" s="116"/>
+      <c r="J8" s="108"/>
     </row>
     <row r="9" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B9" s="83" t="str">
@@ -29291,7 +29289,7 @@
         <v>120000</v>
       </c>
       <c r="I9" s="102"/>
-      <c r="J9" s="114"/>
+      <c r="J9" s="94"/>
     </row>
     <row r="10" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B10" s="83" t="str">
@@ -29314,7 +29312,7 @@
         <v>103494.94</v>
       </c>
       <c r="I10" s="84"/>
-      <c r="J10" s="116"/>
+      <c r="J10" s="108"/>
     </row>
     <row r="11" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B11" s="83" t="str">
@@ -29337,7 +29335,7 @@
         <v>113747.56</v>
       </c>
       <c r="I11" s="84"/>
-      <c r="J11" s="115"/>
+      <c r="J11" s="52"/>
     </row>
     <row r="12" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B12" s="83" t="str">
@@ -29360,7 +29358,7 @@
         <v>104903.79</v>
       </c>
       <c r="I12" s="84"/>
-      <c r="J12" s="115"/>
+      <c r="J12" s="52"/>
     </row>
     <row r="13" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B13" s="83" t="str">
@@ -29383,7 +29381,7 @@
         <v>115191.38</v>
       </c>
       <c r="I13" s="84"/>
-      <c r="J13" s="115"/>
+      <c r="J13" s="52"/>
     </row>
     <row r="14" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B14" s="83" t="str">
@@ -29406,7 +29404,7 @@
         <v>99683.67</v>
       </c>
       <c r="I14" s="84"/>
-      <c r="J14" s="115"/>
+      <c r="J14" s="52"/>
     </row>
     <row r="15" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B15" s="83" t="str">
@@ -29429,7 +29427,7 @@
         <v>102129.37</v>
       </c>
       <c r="I15" s="84"/>
-      <c r="J15" s="115"/>
+      <c r="J15" s="52"/>
     </row>
     <row r="16" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B16" s="83" t="str">
@@ -29452,7 +29450,7 @@
         <v>120000</v>
       </c>
       <c r="I16" s="84"/>
-      <c r="J16" s="115"/>
+      <c r="J16" s="52"/>
     </row>
     <row r="17" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B17" s="83" t="str">
@@ -29475,7 +29473,7 @@
         <v>104802.63</v>
       </c>
       <c r="I17" s="84"/>
-      <c r="J17" s="115"/>
+      <c r="J17" s="52"/>
     </row>
     <row r="18" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B18" s="85" t="str">
@@ -29498,7 +29496,7 @@
         <v>116767.63</v>
       </c>
       <c r="I18" s="87"/>
-      <c r="J18" s="115"/>
+      <c r="J18" s="52"/>
     </row>
     <row r="19" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B19" s="52"/>
@@ -29540,8 +29538,8 @@
       <c r="J21" s="52"/>
     </row>
     <row r="22" spans="2:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="B22" s="112"/>
-      <c r="C22" s="112"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="115"/>
       <c r="D22" s="52">
         <v>36547.58</v>
       </c>
@@ -29553,8 +29551,8 @@
       <c r="J22" s="52"/>
     </row>
     <row r="23" spans="2:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="B23" s="112"/>
-      <c r="C23" s="112"/>
+      <c r="B23" s="115"/>
+      <c r="C23" s="115"/>
       <c r="D23" s="52">
         <v>36547.58</v>
       </c>
@@ -29566,8 +29564,8 @@
       <c r="J23" s="52"/>
     </row>
     <row r="24" spans="2:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="B24" s="112"/>
-      <c r="C24" s="112"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="115"/>
       <c r="D24" s="52">
         <v>38825.18</v>
       </c>
@@ -29579,8 +29577,8 @@
       <c r="J24" s="52"/>
     </row>
     <row r="25" spans="2:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="B25" s="112"/>
-      <c r="C25" s="112"/>
+      <c r="B25" s="115"/>
+      <c r="C25" s="115"/>
       <c r="D25" s="52">
         <v>44845.33</v>
       </c>
